--- a/models/training_summary_all_cities.xlsx
+++ b/models/training_summary_all_cities.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\skripsi_carin\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44624F0A-E555-43DB-B43A-9B9017483C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="full_metrics" sheetId="2" r:id="rId2"/>
     <sheet name="meta" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1149,8 +1155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,13 +1219,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1257,7 +1271,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1291,6 +1305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1325,9 +1340,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1500,14 +1516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1538,22 +1561,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>35.3877167052803</v>
+        <v>35.387716705280297</v>
       </c>
       <c r="D2">
-        <v>78.50786119449019</v>
+        <v>78.507861194490189</v>
       </c>
       <c r="E2">
-        <v>0.1607687841869649</v>
+        <v>0.16076878418696491</v>
       </c>
       <c r="F2">
-        <v>0.441481508536907</v>
+        <v>0.44148150853690699</v>
       </c>
       <c r="G2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1576,7 +1599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1599,7 +1622,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1607,22 +1630,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>50.40436468108764</v>
+        <v>50.404364681087642</v>
       </c>
       <c r="D5">
-        <v>445.6889154309577</v>
+        <v>445.68891543095771</v>
       </c>
       <c r="E5">
-        <v>0.2591432479564342</v>
+        <v>0.25914324795643418</v>
       </c>
       <c r="F5">
-        <v>0.978037425313853</v>
+        <v>0.97803742531385296</v>
       </c>
       <c r="G5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1630,22 +1653,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4.427802890161709</v>
+        <v>4.4278028901617086</v>
       </c>
       <c r="D6">
-        <v>20.07569252872504</v>
+        <v>20.075692528725039</v>
       </c>
       <c r="E6">
-        <v>0.02153399297750218</v>
+        <v>2.1533992977502182E-2</v>
       </c>
       <c r="F6">
-        <v>0.9655115300699073</v>
+        <v>0.96551153006990731</v>
       </c>
       <c r="G6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1659,16 +1682,16 @@
         <v>58.68938953886336</v>
       </c>
       <c r="E7">
-        <v>0.03463332764408034</v>
+        <v>3.4633327644080343E-2</v>
       </c>
       <c r="F7">
-        <v>0.9860673461540382</v>
+        <v>0.98606734615403824</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1676,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>59.11367492887295</v>
+        <v>59.113674928872953</v>
       </c>
       <c r="D8">
         <v>235.393426106449</v>
@@ -1685,13 +1708,13 @@
         <v>0.2948122444892135</v>
       </c>
       <c r="F8">
-        <v>0.9559565961259663</v>
+        <v>0.95595659612596628</v>
       </c>
       <c r="G8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1702,10 +1725,10 @@
         <v>10.49647639892982</v>
       </c>
       <c r="D9">
-        <v>34.62823778016048</v>
+        <v>34.628237780160482</v>
       </c>
       <c r="E9">
-        <v>0.05103165211605237</v>
+        <v>5.1031652116052373E-2</v>
       </c>
       <c r="F9">
         <v>0.977769869500696</v>
@@ -1714,7 +1737,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1722,22 +1745,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>32.62626753341134</v>
+        <v>32.626267533411337</v>
       </c>
       <c r="D10">
-        <v>60.62925794690398</v>
+        <v>60.629257946903977</v>
       </c>
       <c r="E10">
-        <v>0.1617388248662334</v>
+        <v>0.16173882486623339</v>
       </c>
       <c r="F10">
-        <v>0.9623892029669331</v>
+        <v>0.96238920296693309</v>
       </c>
       <c r="G10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1745,22 +1768,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>13.3234383420241</v>
+        <v>13.323438342024099</v>
       </c>
       <c r="D11">
-        <v>30.30895579996396</v>
+        <v>30.308955799963961</v>
       </c>
       <c r="E11">
-        <v>0.06898903590315736</v>
+        <v>6.8989035903157359E-2</v>
       </c>
       <c r="F11">
-        <v>0.9432236905264088</v>
+        <v>0.94322369052640875</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1768,22 +1791,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>13.23024694813535</v>
+        <v>13.230246948135351</v>
       </c>
       <c r="D12">
-        <v>80.42472108515088</v>
+        <v>80.424721085150878</v>
       </c>
       <c r="E12">
-        <v>0.05716444795418715</v>
+        <v>5.7164447954187153E-2</v>
       </c>
       <c r="F12">
-        <v>0.9913306626180078</v>
+        <v>0.99133066261800784</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1791,22 +1814,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>37.83782974745368</v>
+        <v>37.837829747453682</v>
       </c>
       <c r="D13">
-        <v>93.58080718873573</v>
+        <v>93.580807188735733</v>
       </c>
       <c r="E13">
-        <v>0.1786022593688537</v>
+        <v>0.17860225936885371</v>
       </c>
       <c r="F13">
-        <v>0.6777628113140262</v>
+        <v>0.67776281131402616</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1814,22 +1837,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>15.76445555907534</v>
+        <v>15.764455559075341</v>
       </c>
       <c r="D14">
-        <v>44.39676135969739</v>
+        <v>44.396761359697393</v>
       </c>
       <c r="E14">
-        <v>0.07873600152815959</v>
+        <v>7.8736001528159585E-2</v>
       </c>
       <c r="F14">
-        <v>0.8743422062303803</v>
+        <v>0.87434220623038028</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1837,22 +1860,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>9.424610082155818</v>
+        <v>9.4246100821558176</v>
       </c>
       <c r="D15">
-        <v>36.62450525645534</v>
+        <v>36.624505256455343</v>
       </c>
       <c r="E15">
-        <v>0.04348432136657199</v>
+        <v>4.3484321366571987E-2</v>
       </c>
       <c r="F15">
-        <v>0.9794262034552919</v>
+        <v>0.97942620345529185</v>
       </c>
       <c r="G15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1863,19 +1886,19 @@
         <v>10.27777777777778</v>
       </c>
       <c r="D16">
-        <v>51.50512380120814</v>
+        <v>51.505123801208143</v>
       </c>
       <c r="E16">
-        <v>0.05596225702655949</v>
+        <v>5.5962257026559492E-2</v>
       </c>
       <c r="F16">
-        <v>0.9838683265054469</v>
+        <v>0.98386832650544687</v>
       </c>
       <c r="G16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1883,22 +1906,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>20.15516981587732</v>
+        <v>20.155169815877318</v>
       </c>
       <c r="D17">
-        <v>31.36499861893233</v>
+        <v>31.364998618932329</v>
       </c>
       <c r="E17">
-        <v>0.09302412371795593</v>
+        <v>9.3024123717955931E-2</v>
       </c>
       <c r="F17">
-        <v>0.9711685818009536</v>
+        <v>0.97116858180095356</v>
       </c>
       <c r="G17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1912,16 +1935,16 @@
         <v>39.24029408733557</v>
       </c>
       <c r="E18">
-        <v>0.06487706166612973</v>
+        <v>6.4877061666129734E-2</v>
       </c>
       <c r="F18">
-        <v>0.9924671693329952</v>
+        <v>0.99246716933299517</v>
       </c>
       <c r="G18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1932,19 +1955,19 @@
         <v>21.09508697015082</v>
       </c>
       <c r="D19">
-        <v>58.94388205247948</v>
+        <v>58.943882052479481</v>
       </c>
       <c r="E19">
         <v>0.114259029150134</v>
       </c>
       <c r="F19">
-        <v>0.9781145062861479</v>
+        <v>0.97811450628614793</v>
       </c>
       <c r="G19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1952,22 +1975,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>17.87845791548486</v>
+        <v>17.878457915484859</v>
       </c>
       <c r="D20">
-        <v>57.10271978252976</v>
+        <v>57.102719782529761</v>
       </c>
       <c r="E20">
-        <v>0.09239750219309248</v>
+        <v>9.2397502193092479E-2</v>
       </c>
       <c r="F20">
-        <v>0.9702415249868703</v>
+        <v>0.97024152498687033</v>
       </c>
       <c r="G20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1975,7 +1998,7 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>29.42419286028447</v>
+        <v>29.424192860284471</v>
       </c>
       <c r="D21">
         <v>101.0611095377682</v>
@@ -1984,13 +2007,13 @@
         <v>0.1407375707491092</v>
       </c>
       <c r="F21">
-        <v>0.9269174538027485</v>
+        <v>0.92691745380274848</v>
       </c>
       <c r="G21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1998,22 +2021,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>10.52105361779346</v>
+        <v>10.521053617793459</v>
       </c>
       <c r="D22">
         <v>29.40940450745823</v>
       </c>
       <c r="E22">
-        <v>0.05095925087295063</v>
+        <v>5.0959250872950633E-2</v>
       </c>
       <c r="F22">
-        <v>0.9410022714684932</v>
+        <v>0.94100227146849325</v>
       </c>
       <c r="G22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2021,22 +2044,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>46.47024619984285</v>
+        <v>46.470246199842848</v>
       </c>
       <c r="D23">
-        <v>70.82951193349565</v>
+        <v>70.829511933495652</v>
       </c>
       <c r="E23">
         <v>0.2214280915070298</v>
       </c>
       <c r="F23">
-        <v>0.9405348153758631</v>
+        <v>0.94053481537586314</v>
       </c>
       <c r="G23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2044,13 +2067,13 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>14.61066742181358</v>
+        <v>14.610667421813581</v>
       </c>
       <c r="D24">
-        <v>55.4000494551756</v>
+        <v>55.400049455175598</v>
       </c>
       <c r="E24">
-        <v>0.07724375070890484</v>
+        <v>7.7243750708904838E-2</v>
       </c>
       <c r="F24">
         <v>0.9711033279844582</v>
@@ -2059,7 +2082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2067,22 +2090,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>38.72989292932901</v>
+        <v>38.729892929329012</v>
       </c>
       <c r="D25">
-        <v>52.31174223589704</v>
+        <v>52.311742235897043</v>
       </c>
       <c r="E25">
         <v>0.1899091169419734</v>
       </c>
       <c r="F25">
-        <v>0.9119380476055134</v>
+        <v>0.91193804760551345</v>
       </c>
       <c r="G25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2090,22 +2113,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>37.19873454420679</v>
+        <v>37.198734544206793</v>
       </c>
       <c r="D26">
-        <v>47.94332160964849</v>
+        <v>47.943321609648493</v>
       </c>
       <c r="E26">
-        <v>0.1821151400214417</v>
+        <v>0.18211514002144169</v>
       </c>
       <c r="F26">
-        <v>0.9581324854049714</v>
+        <v>0.95813248540497142</v>
       </c>
       <c r="G26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2116,10 +2139,10 @@
         <v>290.5519951544423</v>
       </c>
       <c r="D27">
-        <v>570.101941278723</v>
+        <v>570.10194127872296</v>
       </c>
       <c r="E27">
-        <v>1.31067486991318</v>
+        <v>1.3106748699131801</v>
       </c>
       <c r="F27">
         <v>-1.422787709457717</v>
@@ -2128,7 +2151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2136,22 +2159,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>41.12658446619672</v>
+        <v>41.126584466196718</v>
       </c>
       <c r="D28">
-        <v>43.80996501778529</v>
+        <v>43.809965017785288</v>
       </c>
       <c r="E28">
-        <v>0.1978929053286541</v>
+        <v>0.19789290532865411</v>
       </c>
       <c r="F28">
-        <v>0.8947235566380841</v>
+        <v>0.89472355663808412</v>
       </c>
       <c r="G28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2159,22 +2182,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>11.65043830687991</v>
+        <v>11.650438306879909</v>
       </c>
       <c r="D29">
-        <v>39.2000656598544</v>
+        <v>39.200065659854403</v>
       </c>
       <c r="E29">
-        <v>0.05910345874121245</v>
+        <v>5.910345874121245E-2</v>
       </c>
       <c r="F29">
-        <v>0.9699779886232932</v>
+        <v>0.96997798862329321</v>
       </c>
       <c r="G29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2188,16 +2211,16 @@
         <v>108.2905995314118</v>
       </c>
       <c r="E30">
-        <v>0.1643243959344572</v>
+        <v>0.16432439593445719</v>
       </c>
       <c r="F30">
-        <v>0.9141510985858665</v>
+        <v>0.91415109858586652</v>
       </c>
       <c r="G30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2205,22 +2228,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>14.44444444444444</v>
+        <v>14.444444444444439</v>
       </c>
       <c r="D31">
-        <v>69.72166887783963</v>
+        <v>69.721668877839633</v>
       </c>
       <c r="E31">
-        <v>0.05876874695487615</v>
+        <v>5.8768746954876147E-2</v>
       </c>
       <c r="F31">
-        <v>0.965407499654075</v>
+        <v>0.96540749965407502</v>
       </c>
       <c r="G31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2228,10 +2251,10 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>25.57018519257848</v>
+        <v>25.570185192578482</v>
       </c>
       <c r="D32">
-        <v>79.53531028420723</v>
+        <v>79.535310284207227</v>
       </c>
       <c r="E32">
         <v>0.1113505590950751</v>
@@ -2243,7 +2266,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2254,19 +2277,19 @@
         <v>21.08745922643951</v>
       </c>
       <c r="D33">
-        <v>29.76350542187466</v>
+        <v>29.763505421874662</v>
       </c>
       <c r="E33">
         <v>0.1009801481434127</v>
       </c>
       <c r="F33">
-        <v>0.9736906985332163</v>
+        <v>0.97369069853321633</v>
       </c>
       <c r="G33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2277,19 +2300,19 @@
         <v>13.15386890906446</v>
       </c>
       <c r="D34">
-        <v>55.31617235981165</v>
+        <v>55.316172359811652</v>
       </c>
       <c r="E34">
-        <v>0.06429960695632207</v>
+        <v>6.4299606956322072E-2</v>
       </c>
       <c r="F34">
-        <v>0.9673753616859532</v>
+        <v>0.96737536168595317</v>
       </c>
       <c r="G34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2297,22 +2320,22 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>40.83333333333334</v>
+        <v>40.833333333333343</v>
       </c>
       <c r="D35">
-        <v>125.7753729648394</v>
+        <v>125.77537296483941</v>
       </c>
       <c r="E35">
         <v>0.18444415571948</v>
       </c>
       <c r="F35">
-        <v>0.9461032508399186</v>
+        <v>0.94610325083991864</v>
       </c>
       <c r="G35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2320,22 +2343,22 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>8.888888888888889</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="D36">
-        <v>56.0257877132387</v>
+        <v>56.025787713238699</v>
       </c>
       <c r="E36">
-        <v>0.02829681418981507</v>
+        <v>2.829681418981507E-2</v>
       </c>
       <c r="F36">
-        <v>0.9829482865291463</v>
+        <v>0.98294828652914634</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2343,22 +2366,22 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>60.10200849134045</v>
+        <v>60.102008491340449</v>
       </c>
       <c r="D37">
         <v>116.4396399636381</v>
       </c>
       <c r="E37">
-        <v>0.3007259772726306</v>
+        <v>0.30072597727263062</v>
       </c>
       <c r="F37">
-        <v>0.8869129929392229</v>
+        <v>0.88691299293922288</v>
       </c>
       <c r="G37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2369,19 +2392,19 @@
         <v>17.5</v>
       </c>
       <c r="D38">
-        <v>62.02598021976132</v>
+        <v>62.025980219761323</v>
       </c>
       <c r="E38">
-        <v>0.08021332947531873</v>
+        <v>8.0213329475318729E-2</v>
       </c>
       <c r="F38">
-        <v>0.7902962601571306</v>
+        <v>0.79029626015713061</v>
       </c>
       <c r="G38" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2389,22 +2412,22 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>38.9645524337578</v>
+        <v>38.964552433757802</v>
       </c>
       <c r="D39">
-        <v>42.23621380765263</v>
+        <v>42.236213807652632</v>
       </c>
       <c r="E39">
         <v>0.1897522224437149</v>
       </c>
       <c r="F39">
-        <v>0.9804557240318851</v>
+        <v>0.98045572403188508</v>
       </c>
       <c r="G39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2412,22 +2435,22 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>37.02953208665363</v>
+        <v>37.029532086653631</v>
       </c>
       <c r="D40">
-        <v>55.44430409703457</v>
+        <v>55.444304097034568</v>
       </c>
       <c r="E40">
-        <v>0.1825873759028762</v>
+        <v>0.18258737590287619</v>
       </c>
       <c r="F40">
-        <v>0.8490973546398233</v>
+        <v>0.84909735463982328</v>
       </c>
       <c r="G40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2438,19 +2461,19 @@
         <v>10.59036521062187</v>
       </c>
       <c r="D41">
-        <v>34.44082429317236</v>
+        <v>34.440824293172362</v>
       </c>
       <c r="E41">
-        <v>0.05144300272503723</v>
+        <v>5.1443002725037233E-2</v>
       </c>
       <c r="F41">
-        <v>0.9575256938510615</v>
+        <v>0.95752569385106145</v>
       </c>
       <c r="G41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2458,7 +2481,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>24.10370497528062</v>
+        <v>24.103704975280621</v>
       </c>
       <c r="D42">
         <v>29.54573867785302</v>
@@ -2467,13 +2490,13 @@
         <v>0.1268783391748918</v>
       </c>
       <c r="F42">
-        <v>0.9856453738042414</v>
+        <v>0.98564537380424144</v>
       </c>
       <c r="G42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2481,22 +2504,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>4.722222222222222</v>
+        <v>4.7222222222222223</v>
       </c>
       <c r="D43">
-        <v>33.95258131243894</v>
+        <v>33.952581312438937</v>
       </c>
       <c r="E43">
-        <v>0.02142057963610019</v>
+        <v>2.1420579636100189E-2</v>
       </c>
       <c r="F43">
-        <v>0.9851035571987509</v>
+        <v>0.98510355719875087</v>
       </c>
       <c r="G43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2507,19 +2530,19 @@
         <v>16.48451419924675</v>
       </c>
       <c r="D44">
-        <v>39.03716286438375</v>
+        <v>39.037162864383752</v>
       </c>
       <c r="E44">
-        <v>0.08413889026662948</v>
+        <v>8.4138890266629476E-2</v>
       </c>
       <c r="F44">
-        <v>0.899736798871324</v>
+        <v>0.89973679887132396</v>
       </c>
       <c r="G44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2530,19 +2553,19 @@
         <v>30.03456701779885</v>
       </c>
       <c r="D45">
-        <v>77.78480193973628</v>
+        <v>77.784801939736283</v>
       </c>
       <c r="E45">
-        <v>0.1511712799653958</v>
+        <v>0.15117127996539581</v>
       </c>
       <c r="F45">
-        <v>0.9169041344914425</v>
+        <v>0.91690413449144248</v>
       </c>
       <c r="G45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2550,22 +2573,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>10.51518200156612</v>
+        <v>10.515182001566121</v>
       </c>
       <c r="D46">
-        <v>50.09408228694198</v>
+        <v>50.094082286941983</v>
       </c>
       <c r="E46">
-        <v>0.05178177478877869</v>
+        <v>5.1781774788778691E-2</v>
       </c>
       <c r="F46">
-        <v>0.9410443746256316</v>
+        <v>0.94104437462563162</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2573,22 +2596,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>4.094440746589013</v>
+        <v>4.0944407465890134</v>
       </c>
       <c r="D47">
         <v>13.52435907318635</v>
       </c>
       <c r="E47">
-        <v>0.01943998364410532</v>
+        <v>1.9439983644105319E-2</v>
       </c>
       <c r="F47">
-        <v>0.9414693477310471</v>
+        <v>0.94146934773104707</v>
       </c>
       <c r="G47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2602,16 +2625,16 @@
         <v>116.5504897342243</v>
       </c>
       <c r="E48">
-        <v>0.1339565037193585</v>
+        <v>0.13395650371935849</v>
       </c>
       <c r="F48">
-        <v>0.9633895039222778</v>
+        <v>0.96338950392227785</v>
       </c>
       <c r="G48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2619,7 +2642,7 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>22.00996894544515</v>
+        <v>22.009968945445149</v>
       </c>
       <c r="D49">
         <v>85.78678602879188</v>
@@ -2628,13 +2651,13 @@
         <v>0.108952853747542</v>
       </c>
       <c r="F49">
-        <v>0.2790328167701477</v>
+        <v>0.27903281677014768</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2645,19 +2668,19 @@
         <v>10.6999648406067</v>
       </c>
       <c r="D50">
-        <v>43.43267303379768</v>
+        <v>43.432673033797677</v>
       </c>
       <c r="E50">
-        <v>0.05371899041357445</v>
+        <v>5.3718990413574447E-2</v>
       </c>
       <c r="F50">
-        <v>0.7078987496927491</v>
+        <v>0.70789874969274913</v>
       </c>
       <c r="G50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2665,22 +2688,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>20.01664968310025</v>
+        <v>20.016649683100251</v>
       </c>
       <c r="D51">
-        <v>42.61565714193111</v>
+        <v>42.615657141931109</v>
       </c>
       <c r="E51">
-        <v>0.09927063159416122</v>
+        <v>9.9270631594161218E-2</v>
       </c>
       <c r="F51">
-        <v>0.9701276027689204</v>
+        <v>0.97012760276892041</v>
       </c>
       <c r="G51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2691,19 +2714,19 @@
         <v>17.47710432426393</v>
       </c>
       <c r="D52">
-        <v>132.1438368457239</v>
+        <v>132.14383684572391</v>
       </c>
       <c r="E52">
-        <v>0.08709519593687753</v>
+        <v>8.7095195936877534E-2</v>
       </c>
       <c r="F52">
-        <v>0.7098339873277801</v>
+        <v>0.70983398732778014</v>
       </c>
       <c r="G52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2711,22 +2734,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>40.06641131127405</v>
+        <v>40.066411311274052</v>
       </c>
       <c r="D53">
-        <v>64.18862853041632</v>
+        <v>64.188628530416324</v>
       </c>
       <c r="E53">
         <v>0.1903091894975158</v>
       </c>
       <c r="F53">
-        <v>0.9693050413781981</v>
+        <v>0.96930504137819806</v>
       </c>
       <c r="G53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2737,19 +2760,19 @@
         <v>36.97058648498755</v>
       </c>
       <c r="D54">
-        <v>171.0018862745667</v>
+        <v>171.00188627456669</v>
       </c>
       <c r="E54">
-        <v>0.1838356379680123</v>
+        <v>0.18383563796801231</v>
       </c>
       <c r="F54">
-        <v>0.7450493015789961</v>
+        <v>0.74504930157899607</v>
       </c>
       <c r="G54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2760,19 +2783,19 @@
         <v>15.67899252685099</v>
       </c>
       <c r="D55">
-        <v>47.81299685507073</v>
+        <v>47.812996855070729</v>
       </c>
       <c r="E55">
-        <v>0.08657149907194377</v>
+        <v>8.6571499071943767E-2</v>
       </c>
       <c r="F55">
-        <v>0.9378641177369059</v>
+        <v>0.93786411773690592</v>
       </c>
       <c r="G55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2780,13 +2803,13 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>32.77777777777778</v>
+        <v>32.777777777777779</v>
       </c>
       <c r="D56">
-        <v>252.2124325070259</v>
+        <v>252.21243250702591</v>
       </c>
       <c r="E56">
-        <v>0.1360635387699509</v>
+        <v>0.13606353876995089</v>
       </c>
       <c r="F56">
         <v>0.8187572604821356</v>
@@ -2795,7 +2818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2803,7 +2826,7 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>36.11111111111111</v>
+        <v>36.111111111111107</v>
       </c>
       <c r="D57">
         <v>158.902485820707</v>
@@ -2812,13 +2835,13 @@
         <v>0.1672143412081058</v>
       </c>
       <c r="F57">
-        <v>0.6705314748961979</v>
+        <v>0.67053147489619791</v>
       </c>
       <c r="G57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2826,22 +2849,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>9.312085096772858</v>
+        <v>9.3120850967728579</v>
       </c>
       <c r="D58">
-        <v>53.99998636000227</v>
+        <v>53.999986360002268</v>
       </c>
       <c r="E58">
-        <v>0.04188486049464273</v>
+        <v>4.1884860494642732E-2</v>
       </c>
       <c r="F58">
-        <v>0.9739731028839517</v>
+        <v>0.97397310288395167</v>
       </c>
       <c r="G58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2849,22 +2872,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>23.64356314135578</v>
+        <v>23.643563141355781</v>
       </c>
       <c r="D59">
-        <v>35.3040123868243</v>
+        <v>35.304012386824297</v>
       </c>
       <c r="E59">
         <v>0.1191535937002056</v>
       </c>
       <c r="F59">
-        <v>0.9799992597430807</v>
+        <v>0.97999925974308066</v>
       </c>
       <c r="G59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2872,22 +2895,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>9.228447281087695</v>
+        <v>9.2284472810876945</v>
       </c>
       <c r="D60">
-        <v>78.18398838380743</v>
+        <v>78.183988383807431</v>
       </c>
       <c r="E60">
-        <v>0.04150447809251125</v>
+        <v>4.1504478092511253E-2</v>
       </c>
       <c r="F60">
-        <v>0.9656178146671316</v>
+        <v>0.96561781466713159</v>
       </c>
       <c r="G60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2895,22 +2918,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>43.72606188646144</v>
+        <v>43.726061886461437</v>
       </c>
       <c r="D61">
-        <v>79.6557056612874</v>
+        <v>79.655705661287399</v>
       </c>
       <c r="E61">
-        <v>0.2097876731196932</v>
+        <v>0.20978767311969321</v>
       </c>
       <c r="F61">
-        <v>0.9394883747398569</v>
+        <v>0.93948837473985691</v>
       </c>
       <c r="G61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2921,19 +2944,19 @@
         <v>24.8142243391198</v>
       </c>
       <c r="D62">
-        <v>37.69564860483814</v>
+        <v>37.695648604838141</v>
       </c>
       <c r="E62">
-        <v>0.1219239101364537</v>
+        <v>0.12192391013645371</v>
       </c>
       <c r="F62">
-        <v>0.9692918171755113</v>
+        <v>0.96929181717551127</v>
       </c>
       <c r="G62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2941,22 +2964,22 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>19.80675731126014</v>
+        <v>19.806757311260139</v>
       </c>
       <c r="D63">
-        <v>70.64849642619237</v>
+        <v>70.648496426192366</v>
       </c>
       <c r="E63">
-        <v>0.0887635259335411</v>
+        <v>8.8763525933541101E-2</v>
       </c>
       <c r="F63">
-        <v>0.9604902690398956</v>
+        <v>0.96049026903989565</v>
       </c>
       <c r="G63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2970,16 +2993,16 @@
         <v>81.30873945100312</v>
       </c>
       <c r="E64">
-        <v>0.05515855785368414</v>
+        <v>5.5158557853684141E-2</v>
       </c>
       <c r="F64">
-        <v>0.9765487141069831</v>
+        <v>0.97654871410698307</v>
       </c>
       <c r="G64" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2987,22 +3010,22 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>32.51409535896536</v>
+        <v>32.514095358965363</v>
       </c>
       <c r="D65">
-        <v>48.43818668798263</v>
+        <v>48.438186687982629</v>
       </c>
       <c r="E65">
-        <v>0.1627023846110588</v>
+        <v>0.16270238461105879</v>
       </c>
       <c r="F65">
-        <v>0.8994248029745933</v>
+        <v>0.89942480297459326</v>
       </c>
       <c r="G65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3010,13 +3033,13 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>3.724844804828556</v>
+        <v>3.7248448048285558</v>
       </c>
       <c r="D66">
-        <v>4.426435874329639</v>
+        <v>4.4264358743296386</v>
       </c>
       <c r="E66">
-        <v>0.01895595320523438</v>
+        <v>1.8955953205234379E-2</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3025,7 +3048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3033,13 +3056,13 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>28.16436188193505</v>
+        <v>28.164361881935051</v>
       </c>
       <c r="D67">
-        <v>54.87918548958701</v>
+        <v>54.879185489587009</v>
       </c>
       <c r="E67">
-        <v>0.1297970819951036</v>
+        <v>0.12979708199510359</v>
       </c>
       <c r="F67">
         <v>0.9695339894033812</v>
@@ -3048,7 +3071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3056,13 +3079,13 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>32.77777777777778</v>
+        <v>32.777777777777779</v>
       </c>
       <c r="D68">
-        <v>252.2124325070259</v>
+        <v>252.21243250702591</v>
       </c>
       <c r="E68">
-        <v>0.1360635387699509</v>
+        <v>0.13606353876995089</v>
       </c>
       <c r="F68">
         <v>0.8187572604821356</v>
@@ -3071,7 +3094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3079,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>26.49908027627943</v>
+        <v>26.499080276279429</v>
       </c>
       <c r="D69">
-        <v>64.50746324219105</v>
+        <v>64.507463242191051</v>
       </c>
       <c r="E69">
-        <v>0.1252762963054075</v>
+        <v>0.12527629630540749</v>
       </c>
       <c r="F69">
-        <v>0.9863368385409149</v>
+        <v>0.98633683854091492</v>
       </c>
       <c r="G69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3102,22 +3125,22 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>29.23376885599408</v>
+        <v>29.233768855994079</v>
       </c>
       <c r="D70">
-        <v>98.33715690144649</v>
+        <v>98.337156901446491</v>
       </c>
       <c r="E70">
-        <v>0.1495369489503889</v>
+        <v>0.14953694895038891</v>
       </c>
       <c r="F70">
-        <v>0.9735616369980294</v>
+        <v>0.97356163699802944</v>
       </c>
       <c r="G70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3128,19 +3151,19 @@
         <v>12.22222222222222</v>
       </c>
       <c r="D71">
-        <v>46.24812308503869</v>
+        <v>46.248123085038692</v>
       </c>
       <c r="E71">
-        <v>0.06291458043585994</v>
+        <v>6.2914580435859943E-2</v>
       </c>
       <c r="F71">
-        <v>0.9836549279330914</v>
+        <v>0.98365492793309139</v>
       </c>
       <c r="G71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3148,22 +3171,22 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>32.19785271935169</v>
+        <v>32.197852719351687</v>
       </c>
       <c r="D72">
-        <v>52.99211538214045</v>
+        <v>52.992115382140447</v>
       </c>
       <c r="E72">
-        <v>0.16147971503873</v>
+        <v>0.16147971503872999</v>
       </c>
       <c r="F72">
-        <v>0.9243892264718954</v>
+        <v>0.92438922647189536</v>
       </c>
       <c r="G72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3171,22 +3194,22 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>25.1234938038834</v>
+        <v>25.123493803883399</v>
       </c>
       <c r="D73">
-        <v>99.13365613969634</v>
+        <v>99.133656139696342</v>
       </c>
       <c r="E73">
         <v>0.122165555982908</v>
       </c>
       <c r="F73">
-        <v>0.8482958088990833</v>
+        <v>0.84829580889908329</v>
       </c>
       <c r="G73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3209,7 +3232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3223,16 +3246,16 @@
         <v>15.92326120229666</v>
       </c>
       <c r="E75">
-        <v>0.0383424752753423</v>
+        <v>3.8342475275342298E-2</v>
       </c>
       <c r="F75">
-        <v>0.9775300109052059</v>
+        <v>0.97753001090520586</v>
       </c>
       <c r="G75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3240,22 +3263,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>20.50583788004177</v>
+        <v>20.505837880041771</v>
       </c>
       <c r="D76">
-        <v>39.03174355480542</v>
+        <v>39.031743554805423</v>
       </c>
       <c r="E76">
         <v>0.1021539142980066</v>
       </c>
       <c r="F76">
-        <v>0.9762861312414207</v>
+        <v>0.97628613124142072</v>
       </c>
       <c r="G76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3263,22 +3286,22 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>26.60056356371529</v>
+        <v>26.600563563715291</v>
       </c>
       <c r="D77">
-        <v>99.78338029126641</v>
+        <v>99.783380291266411</v>
       </c>
       <c r="E77">
-        <v>0.1228879763555824</v>
+        <v>0.12288797635558241</v>
       </c>
       <c r="F77">
-        <v>0.8290655105135549</v>
+        <v>0.82906551051355493</v>
       </c>
       <c r="G77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3286,22 +3309,22 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>17.77777777777778</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="D78">
-        <v>104.0832999733066</v>
+        <v>104.08329997330659</v>
       </c>
       <c r="E78">
-        <v>0.08685580213830615</v>
+        <v>8.6855802138306154E-2</v>
       </c>
       <c r="F78">
-        <v>0.5245496937002834</v>
+        <v>0.52454969370028337</v>
       </c>
       <c r="G78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3309,22 +3332,22 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>50.10382898283739</v>
+        <v>50.103828982837392</v>
       </c>
       <c r="D79">
-        <v>88.73041407039638</v>
+        <v>88.730414070396378</v>
       </c>
       <c r="E79">
         <v>0.2462880544720952</v>
       </c>
       <c r="F79">
-        <v>0.8647987063591487</v>
+        <v>0.86479870635914868</v>
       </c>
       <c r="G79" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3335,19 +3358,19 @@
         <v>12.8615805559467</v>
       </c>
       <c r="D80">
-        <v>65.51937188471304</v>
+        <v>65.519371884713038</v>
       </c>
       <c r="E80">
-        <v>0.06677471585204711</v>
+        <v>6.6774715852047112E-2</v>
       </c>
       <c r="F80">
-        <v>0.9510767138027624</v>
+        <v>0.95107671380276237</v>
       </c>
       <c r="G80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3358,19 +3381,19 @@
         <v>28.15952823886926</v>
       </c>
       <c r="D81">
-        <v>54.70191430382373</v>
+        <v>54.701914303823727</v>
       </c>
       <c r="E81">
         <v>0.1393118355151112</v>
       </c>
       <c r="F81">
-        <v>0.9458195476229501</v>
+        <v>0.94581954762295006</v>
       </c>
       <c r="G81" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3381,19 +3404,19 @@
         <v>13.48456934242167</v>
       </c>
       <c r="D82">
-        <v>32.29501516103306</v>
+        <v>32.295015161033056</v>
       </c>
       <c r="E82">
-        <v>0.07002982812657821</v>
+        <v>7.0029828126578209E-2</v>
       </c>
       <c r="F82">
-        <v>0.9289020106929582</v>
+        <v>0.92890201069295819</v>
       </c>
       <c r="G82" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3401,22 +3424,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>76.34478858255137</v>
+        <v>76.344788582551374</v>
       </c>
       <c r="D83">
-        <v>264.7973355444594</v>
+        <v>264.79733554445937</v>
       </c>
       <c r="E83">
-        <v>0.3405444868741742</v>
+        <v>0.34054448687417421</v>
       </c>
       <c r="F83">
-        <v>0.8993608338359624</v>
+        <v>0.89936083383596244</v>
       </c>
       <c r="G83" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3424,22 +3447,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>31.04365935085245</v>
+        <v>31.043659350852451</v>
       </c>
       <c r="D84">
-        <v>68.60630654320437</v>
+        <v>68.606306543204369</v>
       </c>
       <c r="E84">
-        <v>0.1591094894519675</v>
+        <v>0.15910948945196751</v>
       </c>
       <c r="F84">
-        <v>0.8937281693932417</v>
+        <v>0.89372816939324173</v>
       </c>
       <c r="G84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3447,22 +3470,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>27.18583345881865</v>
+        <v>27.185833458818649</v>
       </c>
       <c r="D85">
-        <v>36.4333498342255</v>
+        <v>36.433349834225503</v>
       </c>
       <c r="E85">
-        <v>0.1313004871811689</v>
+        <v>0.13130048718116891</v>
       </c>
       <c r="F85">
-        <v>0.9642928372082343</v>
+        <v>0.96429283720823433</v>
       </c>
       <c r="G85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3470,22 +3493,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>22.07944540291331</v>
+        <v>22.079445402913311</v>
       </c>
       <c r="D86">
-        <v>66.30161351125464</v>
+        <v>66.301613511254644</v>
       </c>
       <c r="E86">
         <v>0.1091260011482983</v>
       </c>
       <c r="F86">
-        <v>0.9679059517834374</v>
+        <v>0.96790595178343741</v>
       </c>
       <c r="G86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3499,16 +3522,16 @@
         <v>115.5857365483993</v>
       </c>
       <c r="E87">
-        <v>0.09225435268722543</v>
+        <v>9.2254352687225427E-2</v>
       </c>
       <c r="F87">
-        <v>0.9614810771918466</v>
+        <v>0.96148107719184661</v>
       </c>
       <c r="G87" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3519,19 +3542,19 @@
         <v>22.5</v>
       </c>
       <c r="D88">
-        <v>87.16204576661922</v>
+        <v>87.162045766619215</v>
       </c>
       <c r="E88">
         <v>0.1084436401594719</v>
       </c>
       <c r="F88">
-        <v>0.7018631283478323</v>
+        <v>0.70186312834783227</v>
       </c>
       <c r="G88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3539,13 +3562,13 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>83.36749246215848</v>
+        <v>83.367492462158481</v>
       </c>
       <c r="D89">
-        <v>135.5791501676838</v>
+        <v>135.57915016768379</v>
       </c>
       <c r="E89">
-        <v>0.4223203636334124</v>
+        <v>0.42232036363341241</v>
       </c>
       <c r="F89">
         <v>0.4432012330365479</v>
@@ -3554,7 +3577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3565,19 +3588,19 @@
         <v>19.7931501201227</v>
       </c>
       <c r="D90">
-        <v>59.92447207113376</v>
+        <v>59.924472071133764</v>
       </c>
       <c r="E90">
-        <v>0.09670429594799358</v>
+        <v>9.6704295947993582E-2</v>
       </c>
       <c r="F90">
-        <v>0.9147525793060335</v>
+        <v>0.91475257930603349</v>
       </c>
       <c r="G90" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3588,19 +3611,19 @@
         <v>34.71915578235425</v>
       </c>
       <c r="D91">
-        <v>53.08450648150851</v>
+        <v>53.084506481508512</v>
       </c>
       <c r="E91">
-        <v>0.1705319589786052</v>
+        <v>0.17053195897860521</v>
       </c>
       <c r="F91">
-        <v>0.9847912216779861</v>
+        <v>0.98479122167798605</v>
       </c>
       <c r="G91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3611,19 +3634,19 @@
         <v>13.02536793561764</v>
       </c>
       <c r="D92">
-        <v>39.43320769624074</v>
+        <v>39.433207696240743</v>
       </c>
       <c r="E92">
-        <v>0.06991199261098144</v>
+        <v>6.9911992610981438E-2</v>
       </c>
       <c r="F92">
-        <v>0.9791562238218017</v>
+        <v>0.97915622382180167</v>
       </c>
       <c r="G92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3631,22 +3654,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>4.722222222222222</v>
+        <v>4.7222222222222223</v>
       </c>
       <c r="D93">
-        <v>63.35525936249404</v>
+        <v>63.355259362494039</v>
       </c>
       <c r="E93">
-        <v>0.02361111111111111</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="F93">
-        <v>0.9763655462184874</v>
+        <v>0.97636554621848737</v>
       </c>
       <c r="G93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3654,7 +3677,7 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>18.4214300350514</v>
+        <v>18.421430035051401</v>
       </c>
       <c r="D94">
         <v>74.77719648782616</v>
@@ -3663,13 +3686,13 @@
         <v>0.1007937143368421</v>
       </c>
       <c r="F94">
-        <v>0.9423515417136799</v>
+        <v>0.94235154171367985</v>
       </c>
       <c r="G94" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3677,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>18.4214300350514</v>
+        <v>18.421430035051401</v>
       </c>
       <c r="D95">
         <v>74.77719648782616</v>
@@ -3686,13 +3709,13 @@
         <v>0.1007937143368421</v>
       </c>
       <c r="F95">
-        <v>0.9423515417136799</v>
+        <v>0.94235154171367985</v>
       </c>
       <c r="G95" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3706,16 +3729,16 @@
         <v>29.34469476943168</v>
       </c>
       <c r="E96">
-        <v>0.0311933315085578</v>
+        <v>3.1193331508557801E-2</v>
       </c>
       <c r="F96">
-        <v>0.958691757599088</v>
+        <v>0.95869175759908798</v>
       </c>
       <c r="G96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3723,13 +3746,13 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>39.68037794299126</v>
+        <v>39.680377942991257</v>
       </c>
       <c r="D97">
-        <v>88.47155897151401</v>
+        <v>88.471558971514014</v>
       </c>
       <c r="E97">
-        <v>0.1902858770658042</v>
+        <v>0.19028587706580419</v>
       </c>
       <c r="F97">
         <v>0.8746989423609679</v>
@@ -3738,7 +3761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3746,22 +3769,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>37.02953208665363</v>
+        <v>37.029532086653631</v>
       </c>
       <c r="D98">
-        <v>55.44430409703457</v>
+        <v>55.444304097034568</v>
       </c>
       <c r="E98">
-        <v>0.1825873759028762</v>
+        <v>0.18258737590287619</v>
       </c>
       <c r="F98">
-        <v>0.8490973546398233</v>
+        <v>0.84909735463982328</v>
       </c>
       <c r="G98" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3769,22 +3792,22 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>11.5246956552704</v>
+        <v>11.524695655270399</v>
       </c>
       <c r="D99">
         <v>66.03556761403847</v>
       </c>
       <c r="E99">
-        <v>0.06007964703250285</v>
+        <v>6.0079647032502848E-2</v>
       </c>
       <c r="F99">
-        <v>0.9860003198969189</v>
+        <v>0.98600031989691894</v>
       </c>
       <c r="G99" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3792,13 +3815,13 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>2.545026122675417</v>
+        <v>2.5450261226754169</v>
       </c>
       <c r="D100">
-        <v>7.533108143347089</v>
+        <v>7.5331081433470892</v>
       </c>
       <c r="E100">
-        <v>0.01165327228055979</v>
+        <v>1.165327228055979E-2</v>
       </c>
       <c r="F100">
         <v>0.9336475614255022</v>
@@ -3807,7 +3830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3815,22 +3838,22 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>16.79090369599326</v>
+        <v>16.790903695993261</v>
       </c>
       <c r="D101">
-        <v>80.62422420798659</v>
+        <v>80.624224207986586</v>
       </c>
       <c r="E101">
-        <v>0.07084973767482899</v>
+        <v>7.0849737674828994E-2</v>
       </c>
       <c r="F101">
-        <v>0.9818689379949788</v>
+        <v>0.98186893799497876</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3838,22 +3861,22 @@
         <v>107</v>
       </c>
       <c r="C102">
-        <v>9.057693643625276</v>
+        <v>9.0576936436252762</v>
       </c>
       <c r="D102">
         <v>28.42466705674736</v>
       </c>
       <c r="E102">
-        <v>0.04808935371491324</v>
+        <v>4.8089353714913241E-2</v>
       </c>
       <c r="F102">
-        <v>0.9583344265291021</v>
+        <v>0.95833442652910206</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3861,22 +3884,22 @@
         <v>108</v>
       </c>
       <c r="C103">
-        <v>29.23376885599408</v>
+        <v>29.233768855994079</v>
       </c>
       <c r="D103">
-        <v>98.33715690144649</v>
+        <v>98.337156901446491</v>
       </c>
       <c r="E103">
-        <v>0.1495369489503889</v>
+        <v>0.14953694895038891</v>
       </c>
       <c r="F103">
-        <v>0.9735616369980294</v>
+        <v>0.97356163699802944</v>
       </c>
       <c r="G103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3887,13 +3910,13 @@
         <v>16.48451419924675</v>
       </c>
       <c r="D104">
-        <v>39.03716286438375</v>
+        <v>39.037162864383752</v>
       </c>
       <c r="E104">
-        <v>0.08413889026662948</v>
+        <v>8.4138890266629476E-2</v>
       </c>
       <c r="F104">
-        <v>0.899736798871324</v>
+        <v>0.89973679887132396</v>
       </c>
       <c r="G104" t="s">
         <v>120</v>
@@ -3905,14 +3928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="119.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -3950,7 +3979,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3961,16 +3990,16 @@
         <v>2009</v>
       </c>
       <c r="D2">
-        <v>0.441481508536907</v>
+        <v>0.44148150853690699</v>
       </c>
       <c r="E2">
-        <v>78.50786119449019</v>
+        <v>78.507861194490189</v>
       </c>
       <c r="F2">
-        <v>35.3877167052803</v>
+        <v>35.387716705280297</v>
       </c>
       <c r="G2">
-        <v>0.1607687841869649</v>
+        <v>0.16076878418696491</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -3979,13 +4008,13 @@
         <v>360</v>
       </c>
       <c r="K2">
-        <v>65.16258570000001</v>
+        <v>65.162585700000008</v>
       </c>
       <c r="L2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4017,13 +4046,13 @@
         <v>361</v>
       </c>
       <c r="K3">
-        <v>63.18113049999999</v>
+        <v>63.181130499999988</v>
       </c>
       <c r="L3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4055,13 +4084,13 @@
         <v>361</v>
       </c>
       <c r="K4">
-        <v>72.8748947</v>
+        <v>72.874894699999999</v>
       </c>
       <c r="L4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4072,16 +4101,16 @@
         <v>2009</v>
       </c>
       <c r="D5">
-        <v>0.978037425313853</v>
+        <v>0.97803742531385296</v>
       </c>
       <c r="E5">
-        <v>445.6889154309577</v>
+        <v>445.68891543095771</v>
       </c>
       <c r="F5">
-        <v>50.40436468108764</v>
+        <v>50.404364681087642</v>
       </c>
       <c r="G5">
-        <v>0.2591432479564342</v>
+        <v>0.25914324795643418</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -4093,13 +4122,13 @@
         <v>361</v>
       </c>
       <c r="K5">
-        <v>65.48451059999996</v>
+        <v>65.484510599999965</v>
       </c>
       <c r="L5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4110,16 +4139,16 @@
         <v>2009</v>
       </c>
       <c r="D6">
-        <v>0.9655115300699073</v>
+        <v>0.96551153006990731</v>
       </c>
       <c r="E6">
-        <v>20.07569252872504</v>
+        <v>20.075692528725039</v>
       </c>
       <c r="F6">
-        <v>4.427802890161709</v>
+        <v>4.4278028901617086</v>
       </c>
       <c r="G6">
-        <v>0.02153399297750218</v>
+        <v>2.1533992977502182E-2</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -4131,13 +4160,13 @@
         <v>361</v>
       </c>
       <c r="K6">
-        <v>66.9219721</v>
+        <v>66.921972100000005</v>
       </c>
       <c r="L6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4177,7 @@
         <v>2009</v>
       </c>
       <c r="D7">
-        <v>0.9860673461540382</v>
+        <v>0.98606734615403824</v>
       </c>
       <c r="E7">
         <v>58.68938953886336</v>
@@ -4157,7 +4186,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="G7">
-        <v>0.03463332764408034</v>
+        <v>3.4633327644080343E-2</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -4169,13 +4198,13 @@
         <v>362</v>
       </c>
       <c r="K7">
-        <v>32.03348849999998</v>
+        <v>32.033488499999983</v>
       </c>
       <c r="L7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4186,13 +4215,13 @@
         <v>2009</v>
       </c>
       <c r="D8">
-        <v>0.9559565961259663</v>
+        <v>0.95595659612596628</v>
       </c>
       <c r="E8">
         <v>235.393426106449</v>
       </c>
       <c r="F8">
-        <v>59.11367492887295</v>
+        <v>59.113674928872953</v>
       </c>
       <c r="G8">
         <v>0.2948122444892135</v>
@@ -4207,13 +4236,13 @@
         <v>361</v>
       </c>
       <c r="K8">
-        <v>74.08817959999999</v>
+        <v>74.088179599999989</v>
       </c>
       <c r="L8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4227,13 +4256,13 @@
         <v>0.977769869500696</v>
       </c>
       <c r="E9">
-        <v>34.62823778016048</v>
+        <v>34.628237780160482</v>
       </c>
       <c r="F9">
         <v>10.49647639892982</v>
       </c>
       <c r="G9">
-        <v>0.05103165211605237</v>
+        <v>5.1031652116052373E-2</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -4245,13 +4274,13 @@
         <v>361</v>
       </c>
       <c r="K9">
-        <v>74.47606709999997</v>
+        <v>74.476067099999966</v>
       </c>
       <c r="L9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4262,16 +4291,16 @@
         <v>2009</v>
       </c>
       <c r="D10">
-        <v>0.9623892029669331</v>
+        <v>0.96238920296693309</v>
       </c>
       <c r="E10">
-        <v>60.62925794690398</v>
+        <v>60.629257946903977</v>
       </c>
       <c r="F10">
-        <v>32.62626753341134</v>
+        <v>32.626267533411337</v>
       </c>
       <c r="G10">
-        <v>0.1617388248662334</v>
+        <v>0.16173882486623339</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -4283,13 +4312,13 @@
         <v>361</v>
       </c>
       <c r="K10">
-        <v>75.73692449999999</v>
+        <v>75.736924499999986</v>
       </c>
       <c r="L10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4300,16 +4329,16 @@
         <v>2009</v>
       </c>
       <c r="D11">
-        <v>0.9432236905264088</v>
+        <v>0.94322369052640875</v>
       </c>
       <c r="E11">
-        <v>30.30895579996396</v>
+        <v>30.308955799963961</v>
       </c>
       <c r="F11">
-        <v>13.3234383420241</v>
+        <v>13.323438342024099</v>
       </c>
       <c r="G11">
-        <v>0.06898903590315736</v>
+        <v>6.8989035903157359E-2</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -4321,13 +4350,13 @@
         <v>361</v>
       </c>
       <c r="K11">
-        <v>64.32669829999998</v>
+        <v>64.326698299999975</v>
       </c>
       <c r="L11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4338,16 +4367,16 @@
         <v>2009</v>
       </c>
       <c r="D12">
-        <v>0.9913306626180078</v>
+        <v>0.99133066261800784</v>
       </c>
       <c r="E12">
-        <v>80.42472108515088</v>
+        <v>80.424721085150878</v>
       </c>
       <c r="F12">
-        <v>13.23024694813535</v>
+        <v>13.230246948135351</v>
       </c>
       <c r="G12">
-        <v>0.05716444795418715</v>
+        <v>5.7164447954187153E-2</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -4359,13 +4388,13 @@
         <v>361</v>
       </c>
       <c r="K12">
-        <v>58.42390590000002</v>
+        <v>58.423905900000022</v>
       </c>
       <c r="L12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4376,16 +4405,16 @@
         <v>2009</v>
       </c>
       <c r="D13">
-        <v>0.6777628113140262</v>
+        <v>0.67776281131402616</v>
       </c>
       <c r="E13">
-        <v>93.58080718873573</v>
+        <v>93.580807188735733</v>
       </c>
       <c r="F13">
-        <v>37.83782974745368</v>
+        <v>37.837829747453682</v>
       </c>
       <c r="G13">
-        <v>0.1786022593688537</v>
+        <v>0.17860225936885371</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -4397,13 +4426,13 @@
         <v>361</v>
       </c>
       <c r="K13">
-        <v>70.01077359999999</v>
+        <v>70.010773599999993</v>
       </c>
       <c r="L13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4414,16 +4443,16 @@
         <v>2009</v>
       </c>
       <c r="D14">
-        <v>0.8743422062303803</v>
+        <v>0.87434220623038028</v>
       </c>
       <c r="E14">
-        <v>44.39676135969739</v>
+        <v>44.396761359697393</v>
       </c>
       <c r="F14">
-        <v>15.76445555907534</v>
+        <v>15.764455559075341</v>
       </c>
       <c r="G14">
-        <v>0.07873600152815959</v>
+        <v>7.8736001528159585E-2</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -4435,13 +4464,13 @@
         <v>361</v>
       </c>
       <c r="K14">
-        <v>63.86905049999996</v>
+        <v>63.869050499999958</v>
       </c>
       <c r="L14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4452,16 +4481,16 @@
         <v>2009</v>
       </c>
       <c r="D15">
-        <v>0.9794262034552919</v>
+        <v>0.97942620345529185</v>
       </c>
       <c r="E15">
-        <v>36.62450525645534</v>
+        <v>36.624505256455343</v>
       </c>
       <c r="F15">
-        <v>9.424610082155818</v>
+        <v>9.4246100821558176</v>
       </c>
       <c r="G15">
-        <v>0.04348432136657199</v>
+        <v>4.3484321366571987E-2</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -4473,13 +4502,13 @@
         <v>361</v>
       </c>
       <c r="K15">
-        <v>62.21700829999997</v>
+        <v>62.217008299999968</v>
       </c>
       <c r="L15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4490,16 +4519,16 @@
         <v>2009</v>
       </c>
       <c r="D16">
-        <v>0.9838683265054469</v>
+        <v>0.98386832650544687</v>
       </c>
       <c r="E16">
-        <v>51.50512380120814</v>
+        <v>51.505123801208143</v>
       </c>
       <c r="F16">
         <v>10.27777777777778</v>
       </c>
       <c r="G16">
-        <v>0.05596225702655949</v>
+        <v>5.5962257026559492E-2</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -4511,13 +4540,13 @@
         <v>361</v>
       </c>
       <c r="K16">
-        <v>78.16852670000003</v>
+        <v>78.168526700000029</v>
       </c>
       <c r="L16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4528,16 +4557,16 @@
         <v>2009</v>
       </c>
       <c r="D17">
-        <v>0.9711685818009536</v>
+        <v>0.97116858180095356</v>
       </c>
       <c r="E17">
-        <v>31.36499861893233</v>
+        <v>31.364998618932329</v>
       </c>
       <c r="F17">
-        <v>20.15516981587732</v>
+        <v>20.155169815877318</v>
       </c>
       <c r="G17">
-        <v>0.09302412371795593</v>
+        <v>9.3024123717955931E-2</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -4549,13 +4578,13 @@
         <v>361</v>
       </c>
       <c r="K17">
-        <v>84.52121139999986</v>
+        <v>84.521211399999856</v>
       </c>
       <c r="L17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4566,7 +4595,7 @@
         <v>2009</v>
       </c>
       <c r="D18">
-        <v>0.9924671693329952</v>
+        <v>0.99246716933299517</v>
       </c>
       <c r="E18">
         <v>39.24029408733557</v>
@@ -4575,7 +4604,7 @@
         <v>13.24618034363125</v>
       </c>
       <c r="G18">
-        <v>0.06487706166612973</v>
+        <v>6.4877061666129734E-2</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -4587,13 +4616,13 @@
         <v>360</v>
       </c>
       <c r="K18">
-        <v>81.12619130000007</v>
+        <v>81.126191300000073</v>
       </c>
       <c r="L18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4604,10 +4633,10 @@
         <v>2009</v>
       </c>
       <c r="D19">
-        <v>0.9781145062861479</v>
+        <v>0.97811450628614793</v>
       </c>
       <c r="E19">
-        <v>58.94388205247948</v>
+        <v>58.943882052479481</v>
       </c>
       <c r="F19">
         <v>21.09508697015082</v>
@@ -4625,13 +4654,13 @@
         <v>363</v>
       </c>
       <c r="K19">
-        <v>88.25629209999988</v>
+        <v>88.256292099999882</v>
       </c>
       <c r="L19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4642,16 +4671,16 @@
         <v>2009</v>
       </c>
       <c r="D20">
-        <v>0.9702415249868703</v>
+        <v>0.97024152498687033</v>
       </c>
       <c r="E20">
-        <v>57.10271978252976</v>
+        <v>57.102719782529761</v>
       </c>
       <c r="F20">
-        <v>17.87845791548486</v>
+        <v>17.878457915484859</v>
       </c>
       <c r="G20">
-        <v>0.09239750219309248</v>
+        <v>9.2397502193092479E-2</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -4663,13 +4692,13 @@
         <v>360</v>
       </c>
       <c r="K20">
-        <v>72.01807090000011</v>
+        <v>72.018070900000112</v>
       </c>
       <c r="L20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -4680,13 +4709,13 @@
         <v>2009</v>
       </c>
       <c r="D21">
-        <v>0.9269174538027485</v>
+        <v>0.92691745380274848</v>
       </c>
       <c r="E21">
         <v>101.0611095377682</v>
       </c>
       <c r="F21">
-        <v>29.42419286028447</v>
+        <v>29.424192860284471</v>
       </c>
       <c r="G21">
         <v>0.1407375707491092</v>
@@ -4701,13 +4730,13 @@
         <v>360</v>
       </c>
       <c r="K21">
-        <v>68.8947442000001</v>
+        <v>68.894744200000105</v>
       </c>
       <c r="L21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4718,16 +4747,16 @@
         <v>2009</v>
       </c>
       <c r="D22">
-        <v>0.9410022714684932</v>
+        <v>0.94100227146849325</v>
       </c>
       <c r="E22">
         <v>29.40940450745823</v>
       </c>
       <c r="F22">
-        <v>10.52105361779346</v>
+        <v>10.521053617793459</v>
       </c>
       <c r="G22">
-        <v>0.05095925087295063</v>
+        <v>5.0959250872950633E-2</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -4739,13 +4768,13 @@
         <v>361</v>
       </c>
       <c r="K22">
-        <v>75.45452380000006</v>
+        <v>75.454523800000061</v>
       </c>
       <c r="L22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4756,13 +4785,13 @@
         <v>2009</v>
       </c>
       <c r="D23">
-        <v>0.9405348153758631</v>
+        <v>0.94053481537586314</v>
       </c>
       <c r="E23">
-        <v>70.82951193349565</v>
+        <v>70.829511933495652</v>
       </c>
       <c r="F23">
-        <v>46.47024619984285</v>
+        <v>46.470246199842848</v>
       </c>
       <c r="G23">
         <v>0.2214280915070298</v>
@@ -4777,13 +4806,13 @@
         <v>361</v>
       </c>
       <c r="K23">
-        <v>82.72532819999992</v>
+        <v>82.725328199999922</v>
       </c>
       <c r="L23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -4797,13 +4826,13 @@
         <v>0.9711033279844582</v>
       </c>
       <c r="E24">
-        <v>55.4000494551756</v>
+        <v>55.400049455175598</v>
       </c>
       <c r="F24">
-        <v>14.61066742181358</v>
+        <v>14.610667421813581</v>
       </c>
       <c r="G24">
-        <v>0.07724375070890484</v>
+        <v>7.7243750708904838E-2</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -4815,13 +4844,13 @@
         <v>364</v>
       </c>
       <c r="K24">
-        <v>76.04188649999992</v>
+        <v>76.041886499999919</v>
       </c>
       <c r="L24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -4832,13 +4861,13 @@
         <v>2009</v>
       </c>
       <c r="D25">
-        <v>0.9119380476055134</v>
+        <v>0.91193804760551345</v>
       </c>
       <c r="E25">
-        <v>52.31174223589704</v>
+        <v>52.311742235897043</v>
       </c>
       <c r="F25">
-        <v>38.72989292932901</v>
+        <v>38.729892929329012</v>
       </c>
       <c r="G25">
         <v>0.1899091169419734</v>
@@ -4853,13 +4882,13 @@
         <v>360</v>
       </c>
       <c r="K25">
-        <v>78.86984469999993</v>
+        <v>78.869844699999931</v>
       </c>
       <c r="L25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4870,16 +4899,16 @@
         <v>2009</v>
       </c>
       <c r="D26">
-        <v>0.9581324854049714</v>
+        <v>0.95813248540497142</v>
       </c>
       <c r="E26">
-        <v>47.94332160964849</v>
+        <v>47.943321609648493</v>
       </c>
       <c r="F26">
-        <v>37.19873454420679</v>
+        <v>37.198734544206793</v>
       </c>
       <c r="G26">
-        <v>0.1821151400214417</v>
+        <v>0.18211514002144169</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -4891,13 +4920,13 @@
         <v>361</v>
       </c>
       <c r="K26">
-        <v>79.49974420000012</v>
+        <v>79.499744200000123</v>
       </c>
       <c r="L26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4911,13 +4940,13 @@
         <v>-1.422787709457717</v>
       </c>
       <c r="E27">
-        <v>570.101941278723</v>
+        <v>570.10194127872296</v>
       </c>
       <c r="F27">
         <v>290.5519951544423</v>
       </c>
       <c r="G27">
-        <v>1.31067486991318</v>
+        <v>1.3106748699131801</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -4926,13 +4955,13 @@
         <v>365</v>
       </c>
       <c r="K27">
-        <v>76.04982159999986</v>
+        <v>76.049821599999859</v>
       </c>
       <c r="L27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4943,16 +4972,16 @@
         <v>2009</v>
       </c>
       <c r="D28">
-        <v>0.8947235566380841</v>
+        <v>0.89472355663808412</v>
       </c>
       <c r="E28">
-        <v>43.80996501778529</v>
+        <v>43.809965017785288</v>
       </c>
       <c r="F28">
-        <v>41.12658446619672</v>
+        <v>41.126584466196718</v>
       </c>
       <c r="G28">
-        <v>0.1978929053286541</v>
+        <v>0.19789290532865411</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -4964,13 +4993,13 @@
         <v>361</v>
       </c>
       <c r="K28">
-        <v>77.19825930000002</v>
+        <v>77.198259300000018</v>
       </c>
       <c r="L28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4981,16 +5010,16 @@
         <v>2009</v>
       </c>
       <c r="D29">
-        <v>0.9699779886232932</v>
+        <v>0.96997798862329321</v>
       </c>
       <c r="E29">
-        <v>39.2000656598544</v>
+        <v>39.200065659854403</v>
       </c>
       <c r="F29">
-        <v>11.65043830687991</v>
+        <v>11.650438306879909</v>
       </c>
       <c r="G29">
-        <v>0.05910345874121245</v>
+        <v>5.910345874121245E-2</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -5008,7 +5037,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5019,7 +5048,7 @@
         <v>2009</v>
       </c>
       <c r="D30">
-        <v>0.9141510985858665</v>
+        <v>0.91415109858586652</v>
       </c>
       <c r="E30">
         <v>108.2905995314118</v>
@@ -5028,7 +5057,7 @@
         <v>43.14540845661989</v>
       </c>
       <c r="G30">
-        <v>0.1643243959344572</v>
+        <v>0.16432439593445719</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -5040,13 +5069,13 @@
         <v>360</v>
       </c>
       <c r="K30">
-        <v>80.35071920000019</v>
+        <v>80.350719200000185</v>
       </c>
       <c r="L30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -5057,16 +5086,16 @@
         <v>2009</v>
       </c>
       <c r="D31">
-        <v>0.965407499654075</v>
+        <v>0.96540749965407502</v>
       </c>
       <c r="E31">
-        <v>69.72166887783963</v>
+        <v>69.721668877839633</v>
       </c>
       <c r="F31">
-        <v>14.44444444444444</v>
+        <v>14.444444444444439</v>
       </c>
       <c r="G31">
-        <v>0.05876874695487615</v>
+        <v>5.8768746954876147E-2</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -5078,13 +5107,13 @@
         <v>362</v>
       </c>
       <c r="K31">
-        <v>33.1835888999999</v>
+        <v>33.183588899999897</v>
       </c>
       <c r="L31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5098,10 +5127,10 @@
         <v>0.4627398149166988</v>
       </c>
       <c r="E32">
-        <v>79.53531028420723</v>
+        <v>79.535310284207227</v>
       </c>
       <c r="F32">
-        <v>25.57018519257848</v>
+        <v>25.570185192578482</v>
       </c>
       <c r="G32">
         <v>0.1113505590950751</v>
@@ -5113,13 +5142,13 @@
         <v>361</v>
       </c>
       <c r="K32">
-        <v>57.14914180000005</v>
+        <v>57.149141800000052</v>
       </c>
       <c r="L32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -5130,10 +5159,10 @@
         <v>2009</v>
       </c>
       <c r="D33">
-        <v>0.9736906985332163</v>
+        <v>0.97369069853321633</v>
       </c>
       <c r="E33">
-        <v>29.76350542187466</v>
+        <v>29.763505421874662</v>
       </c>
       <c r="F33">
         <v>21.08745922643951</v>
@@ -5157,7 +5186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5168,16 +5197,16 @@
         <v>2009</v>
       </c>
       <c r="D34">
-        <v>0.9673753616859532</v>
+        <v>0.96737536168595317</v>
       </c>
       <c r="E34">
-        <v>55.31617235981165</v>
+        <v>55.316172359811652</v>
       </c>
       <c r="F34">
         <v>13.15386890906446</v>
       </c>
       <c r="G34">
-        <v>0.06429960695632207</v>
+        <v>6.4299606956322072E-2</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -5189,13 +5218,13 @@
         <v>361</v>
       </c>
       <c r="K34">
-        <v>67.52768149999974</v>
+        <v>67.527681499999744</v>
       </c>
       <c r="L34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5206,13 +5235,13 @@
         <v>2009</v>
       </c>
       <c r="D35">
-        <v>0.9461032508399186</v>
+        <v>0.94610325083991864</v>
       </c>
       <c r="E35">
-        <v>125.7753729648394</v>
+        <v>125.77537296483941</v>
       </c>
       <c r="F35">
-        <v>40.83333333333334</v>
+        <v>40.833333333333343</v>
       </c>
       <c r="G35">
         <v>0.18444415571948</v>
@@ -5227,13 +5256,13 @@
         <v>361</v>
       </c>
       <c r="K35">
-        <v>68.94206679999979</v>
+        <v>68.942066799999793</v>
       </c>
       <c r="L35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5244,16 +5273,16 @@
         <v>2009</v>
       </c>
       <c r="D36">
-        <v>0.9829482865291463</v>
+        <v>0.98294828652914634</v>
       </c>
       <c r="E36">
-        <v>56.0257877132387</v>
+        <v>56.025787713238699</v>
       </c>
       <c r="F36">
-        <v>8.888888888888889</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="G36">
-        <v>0.02829681418981507</v>
+        <v>2.829681418981507E-2</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -5271,7 +5300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -5282,16 +5311,16 @@
         <v>2009</v>
       </c>
       <c r="D37">
-        <v>0.8869129929392229</v>
+        <v>0.88691299293922288</v>
       </c>
       <c r="E37">
         <v>116.4396399636381</v>
       </c>
       <c r="F37">
-        <v>60.10200849134045</v>
+        <v>60.102008491340449</v>
       </c>
       <c r="G37">
-        <v>0.3007259772726306</v>
+        <v>0.30072597727263062</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -5303,13 +5332,13 @@
         <v>361</v>
       </c>
       <c r="K37">
-        <v>74.43522979999989</v>
+        <v>74.435229799999888</v>
       </c>
       <c r="L37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5320,16 +5349,16 @@
         <v>2009</v>
       </c>
       <c r="D38">
-        <v>0.7902962601571306</v>
+        <v>0.79029626015713061</v>
       </c>
       <c r="E38">
-        <v>62.02598021976132</v>
+        <v>62.025980219761323</v>
       </c>
       <c r="F38">
         <v>17.5</v>
       </c>
       <c r="G38">
-        <v>0.08021332947531873</v>
+        <v>8.0213329475318729E-2</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -5341,13 +5370,13 @@
         <v>366</v>
       </c>
       <c r="K38">
-        <v>53.44146460000002</v>
+        <v>53.441464600000018</v>
       </c>
       <c r="L38" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -5358,13 +5387,13 @@
         <v>2009</v>
       </c>
       <c r="D39">
-        <v>0.9804557240318851</v>
+        <v>0.98045572403188508</v>
       </c>
       <c r="E39">
-        <v>42.23621380765263</v>
+        <v>42.236213807652632</v>
       </c>
       <c r="F39">
-        <v>38.9645524337578</v>
+        <v>38.964552433757802</v>
       </c>
       <c r="G39">
         <v>0.1897522224437149</v>
@@ -5379,13 +5408,13 @@
         <v>361</v>
       </c>
       <c r="K39">
-        <v>70.25724330000003</v>
+        <v>70.257243300000027</v>
       </c>
       <c r="L39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -5396,16 +5425,16 @@
         <v>2009</v>
       </c>
       <c r="D40">
-        <v>0.8490973546398233</v>
+        <v>0.84909735463982328</v>
       </c>
       <c r="E40">
-        <v>55.44430409703457</v>
+        <v>55.444304097034568</v>
       </c>
       <c r="F40">
-        <v>37.02953208665363</v>
+        <v>37.029532086653631</v>
       </c>
       <c r="G40">
-        <v>0.1825873759028762</v>
+        <v>0.18258737590287619</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -5417,13 +5446,13 @@
         <v>365</v>
       </c>
       <c r="K40">
-        <v>72.96224840000014</v>
+        <v>72.962248400000135</v>
       </c>
       <c r="L40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -5434,16 +5463,16 @@
         <v>2009</v>
       </c>
       <c r="D41">
-        <v>0.9575256938510615</v>
+        <v>0.95752569385106145</v>
       </c>
       <c r="E41">
-        <v>34.44082429317236</v>
+        <v>34.440824293172362</v>
       </c>
       <c r="F41">
         <v>10.59036521062187</v>
       </c>
       <c r="G41">
-        <v>0.05144300272503723</v>
+        <v>5.1443002725037233E-2</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -5455,13 +5484,13 @@
         <v>360</v>
       </c>
       <c r="K41">
-        <v>69.4315673000001</v>
+        <v>69.431567300000097</v>
       </c>
       <c r="L41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5472,13 +5501,13 @@
         <v>2009</v>
       </c>
       <c r="D42">
-        <v>0.9856453738042414</v>
+        <v>0.98564537380424144</v>
       </c>
       <c r="E42">
         <v>29.54573867785302</v>
       </c>
       <c r="F42">
-        <v>24.10370497528062</v>
+        <v>24.103704975280621</v>
       </c>
       <c r="G42">
         <v>0.1268783391748918</v>
@@ -5493,13 +5522,13 @@
         <v>367</v>
       </c>
       <c r="K42">
-        <v>69.83788800000002</v>
+        <v>69.837888000000021</v>
       </c>
       <c r="L42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -5510,16 +5539,16 @@
         <v>2009</v>
       </c>
       <c r="D43">
-        <v>0.9851035571987509</v>
+        <v>0.98510355719875087</v>
       </c>
       <c r="E43">
-        <v>33.95258131243894</v>
+        <v>33.952581312438937</v>
       </c>
       <c r="F43">
-        <v>4.722222222222222</v>
+        <v>4.7222222222222223</v>
       </c>
       <c r="G43">
-        <v>0.02142057963610019</v>
+        <v>2.1420579636100189E-2</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -5531,13 +5560,13 @@
         <v>361</v>
       </c>
       <c r="K43">
-        <v>40.8131126000003</v>
+        <v>40.813112600000302</v>
       </c>
       <c r="L43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5548,16 +5577,16 @@
         <v>2009</v>
       </c>
       <c r="D44">
-        <v>0.899736798871324</v>
+        <v>0.89973679887132396</v>
       </c>
       <c r="E44">
-        <v>39.03716286438375</v>
+        <v>39.037162864383752</v>
       </c>
       <c r="F44">
         <v>16.48451419924675</v>
       </c>
       <c r="G44">
-        <v>0.08413889026662948</v>
+        <v>8.4138890266629476E-2</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -5569,13 +5598,13 @@
         <v>361</v>
       </c>
       <c r="K44">
-        <v>55.87932899999987</v>
+        <v>55.879328999999871</v>
       </c>
       <c r="L44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -5586,16 +5615,16 @@
         <v>2009</v>
       </c>
       <c r="D45">
-        <v>0.9169041344914425</v>
+        <v>0.91690413449144248</v>
       </c>
       <c r="E45">
-        <v>77.78480193973628</v>
+        <v>77.784801939736283</v>
       </c>
       <c r="F45">
         <v>30.03456701779885</v>
       </c>
       <c r="G45">
-        <v>0.1511712799653958</v>
+        <v>0.15117127996539581</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -5607,13 +5636,13 @@
         <v>360</v>
       </c>
       <c r="K45">
-        <v>68.73944589999974</v>
+        <v>68.739445899999737</v>
       </c>
       <c r="L45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5624,16 +5653,16 @@
         <v>2009</v>
       </c>
       <c r="D46">
-        <v>0.9410443746256316</v>
+        <v>0.94104437462563162</v>
       </c>
       <c r="E46">
-        <v>50.09408228694198</v>
+        <v>50.094082286941983</v>
       </c>
       <c r="F46">
-        <v>10.51518200156612</v>
+        <v>10.515182001566121</v>
       </c>
       <c r="G46">
-        <v>0.05178177478877869</v>
+        <v>5.1781774788778691E-2</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -5645,13 +5674,13 @@
         <v>360</v>
       </c>
       <c r="K46">
-        <v>63.69940700000006</v>
+        <v>63.699407000000058</v>
       </c>
       <c r="L46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -5662,16 +5691,16 @@
         <v>2009</v>
       </c>
       <c r="D47">
-        <v>0.9414693477310471</v>
+        <v>0.94146934773104707</v>
       </c>
       <c r="E47">
         <v>13.52435907318635</v>
       </c>
       <c r="F47">
-        <v>4.094440746589013</v>
+        <v>4.0944407465890134</v>
       </c>
       <c r="G47">
-        <v>0.01943998364410532</v>
+        <v>1.9439983644105319E-2</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -5683,13 +5712,13 @@
         <v>360</v>
       </c>
       <c r="K47">
-        <v>66.89985440000009</v>
+        <v>66.899854400000095</v>
       </c>
       <c r="L47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5700,7 +5729,7 @@
         <v>2009</v>
       </c>
       <c r="D48">
-        <v>0.9633895039222778</v>
+        <v>0.96338950392227785</v>
       </c>
       <c r="E48">
         <v>116.5504897342243</v>
@@ -5709,7 +5738,7 @@
         <v>28.45633960858969</v>
       </c>
       <c r="G48">
-        <v>0.1339565037193585</v>
+        <v>0.13395650371935849</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -5721,13 +5750,13 @@
         <v>361</v>
       </c>
       <c r="K48">
-        <v>58.79333829999996</v>
+        <v>58.793338299999959</v>
       </c>
       <c r="L48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -5738,13 +5767,13 @@
         <v>2009</v>
       </c>
       <c r="D49">
-        <v>0.2790328167701477</v>
+        <v>0.27903281677014768</v>
       </c>
       <c r="E49">
         <v>85.78678602879188</v>
       </c>
       <c r="F49">
-        <v>22.00996894544515</v>
+        <v>22.009968945445149</v>
       </c>
       <c r="G49">
         <v>0.108952853747542</v>
@@ -5756,13 +5785,13 @@
         <v>361</v>
       </c>
       <c r="K49">
-        <v>63.93893230000003</v>
+        <v>63.938932300000033</v>
       </c>
       <c r="L49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5773,16 +5802,16 @@
         <v>2009</v>
       </c>
       <c r="D50">
-        <v>0.7078987496927491</v>
+        <v>0.70789874969274913</v>
       </c>
       <c r="E50">
-        <v>43.43267303379768</v>
+        <v>43.432673033797677</v>
       </c>
       <c r="F50">
         <v>10.6999648406067</v>
       </c>
       <c r="G50">
-        <v>0.05371899041357445</v>
+        <v>5.3718990413574447E-2</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -5794,13 +5823,13 @@
         <v>361</v>
       </c>
       <c r="K50">
-        <v>65.87949260000005</v>
+        <v>65.879492600000049</v>
       </c>
       <c r="L50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -5811,16 +5840,16 @@
         <v>2009</v>
       </c>
       <c r="D51">
-        <v>0.9701276027689204</v>
+        <v>0.97012760276892041</v>
       </c>
       <c r="E51">
-        <v>42.61565714193111</v>
+        <v>42.615657141931109</v>
       </c>
       <c r="F51">
-        <v>20.01664968310025</v>
+        <v>20.016649683100251</v>
       </c>
       <c r="G51">
-        <v>0.09927063159416122</v>
+        <v>9.9270631594161218E-2</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -5832,13 +5861,13 @@
         <v>361</v>
       </c>
       <c r="K51">
-        <v>54.74018169999999</v>
+        <v>54.740181699999987</v>
       </c>
       <c r="L51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5849,16 +5878,16 @@
         <v>2009</v>
       </c>
       <c r="D52">
-        <v>0.7098339873277801</v>
+        <v>0.70983398732778014</v>
       </c>
       <c r="E52">
-        <v>132.1438368457239</v>
+        <v>132.14383684572391</v>
       </c>
       <c r="F52">
         <v>17.47710432426393</v>
       </c>
       <c r="G52">
-        <v>0.08709519593687753</v>
+        <v>8.7095195936877534E-2</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -5870,13 +5899,13 @@
         <v>361</v>
       </c>
       <c r="K52">
-        <v>69.50482729999976</v>
+        <v>69.504827299999761</v>
       </c>
       <c r="L52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5887,13 +5916,13 @@
         <v>2009</v>
       </c>
       <c r="D53">
-        <v>0.9693050413781981</v>
+        <v>0.96930504137819806</v>
       </c>
       <c r="E53">
-        <v>64.18862853041632</v>
+        <v>64.188628530416324</v>
       </c>
       <c r="F53">
-        <v>40.06641131127405</v>
+        <v>40.066411311274052</v>
       </c>
       <c r="G53">
         <v>0.1903091894975158</v>
@@ -5908,13 +5937,13 @@
         <v>361</v>
       </c>
       <c r="K53">
-        <v>71.88117140000031</v>
+        <v>71.881171400000312</v>
       </c>
       <c r="L53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -5925,16 +5954,16 @@
         <v>2009</v>
       </c>
       <c r="D54">
-        <v>0.7450493015789961</v>
+        <v>0.74504930157899607</v>
       </c>
       <c r="E54">
-        <v>171.0018862745667</v>
+        <v>171.00188627456669</v>
       </c>
       <c r="F54">
         <v>36.97058648498755</v>
       </c>
       <c r="G54">
-        <v>0.1838356379680123</v>
+        <v>0.18383563796801231</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -5946,13 +5975,13 @@
         <v>361</v>
       </c>
       <c r="K54">
-        <v>68.3242494000001</v>
+        <v>68.324249400000099</v>
       </c>
       <c r="L54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5963,16 +5992,16 @@
         <v>2009</v>
       </c>
       <c r="D55">
-        <v>0.9378641177369059</v>
+        <v>0.93786411773690592</v>
       </c>
       <c r="E55">
-        <v>47.81299685507073</v>
+        <v>47.812996855070729</v>
       </c>
       <c r="F55">
         <v>15.67899252685099</v>
       </c>
       <c r="G55">
-        <v>0.08657149907194377</v>
+        <v>8.6571499071943767E-2</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -5984,13 +6013,13 @@
         <v>360</v>
       </c>
       <c r="K55">
-        <v>69.31888090000029</v>
+        <v>69.318880900000295</v>
       </c>
       <c r="L55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6004,13 +6033,13 @@
         <v>0.8187572604821356</v>
       </c>
       <c r="E56">
-        <v>252.2124325070259</v>
+        <v>252.21243250702591</v>
       </c>
       <c r="F56">
-        <v>32.77777777777778</v>
+        <v>32.777777777777779</v>
       </c>
       <c r="G56">
-        <v>0.1360635387699509</v>
+        <v>0.13606353876995089</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -6022,13 +6051,13 @@
         <v>361</v>
       </c>
       <c r="K56">
-        <v>53.60339579999982</v>
+        <v>53.603395799999817</v>
       </c>
       <c r="L56" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -6039,13 +6068,13 @@
         <v>2009</v>
       </c>
       <c r="D57">
-        <v>0.6705314748961979</v>
+        <v>0.67053147489619791</v>
       </c>
       <c r="E57">
         <v>158.902485820707</v>
       </c>
       <c r="F57">
-        <v>36.11111111111111</v>
+        <v>36.111111111111107</v>
       </c>
       <c r="G57">
         <v>0.1672143412081058</v>
@@ -6060,13 +6089,13 @@
         <v>361</v>
       </c>
       <c r="K57">
-        <v>72.93851180000001</v>
+        <v>72.938511800000015</v>
       </c>
       <c r="L57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6077,16 +6106,16 @@
         <v>2009</v>
       </c>
       <c r="D58">
-        <v>0.9739731028839517</v>
+        <v>0.97397310288395167</v>
       </c>
       <c r="E58">
-        <v>53.99998636000227</v>
+        <v>53.999986360002268</v>
       </c>
       <c r="F58">
-        <v>9.312085096772858</v>
+        <v>9.3120850967728579</v>
       </c>
       <c r="G58">
-        <v>0.04188486049464273</v>
+        <v>4.1884860494642732E-2</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -6098,13 +6127,13 @@
         <v>361</v>
       </c>
       <c r="K58">
-        <v>73.83797550000008</v>
+        <v>73.837975500000084</v>
       </c>
       <c r="L58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -6115,13 +6144,13 @@
         <v>2009</v>
       </c>
       <c r="D59">
-        <v>0.9799992597430807</v>
+        <v>0.97999925974308066</v>
       </c>
       <c r="E59">
-        <v>35.3040123868243</v>
+        <v>35.304012386824297</v>
       </c>
       <c r="F59">
-        <v>23.64356314135578</v>
+        <v>23.643563141355781</v>
       </c>
       <c r="G59">
         <v>0.1191535937002056</v>
@@ -6136,13 +6165,13 @@
         <v>361</v>
       </c>
       <c r="K59">
-        <v>81.14797050000016</v>
+        <v>81.147970500000156</v>
       </c>
       <c r="L59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -6153,16 +6182,16 @@
         <v>2009</v>
       </c>
       <c r="D60">
-        <v>0.9656178146671316</v>
+        <v>0.96561781466713159</v>
       </c>
       <c r="E60">
-        <v>78.18398838380743</v>
+        <v>78.183988383807431</v>
       </c>
       <c r="F60">
-        <v>9.228447281087695</v>
+        <v>9.2284472810876945</v>
       </c>
       <c r="G60">
-        <v>0.04150447809251125</v>
+        <v>4.1504478092511253E-2</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -6174,13 +6203,13 @@
         <v>361</v>
       </c>
       <c r="K60">
-        <v>64.88809619999984</v>
+        <v>64.888096199999836</v>
       </c>
       <c r="L60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -6191,16 +6220,16 @@
         <v>2009</v>
       </c>
       <c r="D61">
-        <v>0.9394883747398569</v>
+        <v>0.93948837473985691</v>
       </c>
       <c r="E61">
-        <v>79.6557056612874</v>
+        <v>79.655705661287399</v>
       </c>
       <c r="F61">
-        <v>43.72606188646144</v>
+        <v>43.726061886461437</v>
       </c>
       <c r="G61">
-        <v>0.2097876731196932</v>
+        <v>0.20978767311969321</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -6212,13 +6241,13 @@
         <v>360</v>
       </c>
       <c r="K61">
-        <v>76.3359504</v>
+        <v>76.335950400000002</v>
       </c>
       <c r="L61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6229,16 +6258,16 @@
         <v>2009</v>
       </c>
       <c r="D62">
-        <v>0.9692918171755113</v>
+        <v>0.96929181717551127</v>
       </c>
       <c r="E62">
-        <v>37.69564860483814</v>
+        <v>37.695648604838141</v>
       </c>
       <c r="F62">
         <v>24.8142243391198</v>
       </c>
       <c r="G62">
-        <v>0.1219239101364537</v>
+        <v>0.12192391013645371</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -6250,13 +6279,13 @@
         <v>361</v>
       </c>
       <c r="K62">
-        <v>72.32158320000053</v>
+        <v>72.321583200000532</v>
       </c>
       <c r="L62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -6267,16 +6296,16 @@
         <v>2009</v>
       </c>
       <c r="D63">
-        <v>0.9604902690398956</v>
+        <v>0.96049026903989565</v>
       </c>
       <c r="E63">
-        <v>70.64849642619237</v>
+        <v>70.648496426192366</v>
       </c>
       <c r="F63">
-        <v>19.80675731126014</v>
+        <v>19.806757311260139</v>
       </c>
       <c r="G63">
-        <v>0.0887635259335411</v>
+        <v>8.8763525933541101E-2</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -6288,13 +6317,13 @@
         <v>361</v>
       </c>
       <c r="K63">
-        <v>58.12139999999999</v>
+        <v>58.121399999999987</v>
       </c>
       <c r="L63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -6305,7 +6334,7 @@
         <v>2009</v>
       </c>
       <c r="D64">
-        <v>0.9765487141069831</v>
+        <v>0.97654871410698307</v>
       </c>
       <c r="E64">
         <v>81.30873945100312</v>
@@ -6314,7 +6343,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="G64">
-        <v>0.05515855785368414</v>
+        <v>5.5158557853684141E-2</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -6332,7 +6361,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -6343,16 +6372,16 @@
         <v>2009</v>
       </c>
       <c r="D65">
-        <v>0.8994248029745933</v>
+        <v>0.89942480297459326</v>
       </c>
       <c r="E65">
-        <v>48.43818668798263</v>
+        <v>48.438186687982629</v>
       </c>
       <c r="F65">
-        <v>32.51409535896536</v>
+        <v>32.514095358965363</v>
       </c>
       <c r="G65">
-        <v>0.1627023846110588</v>
+        <v>0.16270238461105879</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -6364,13 +6393,13 @@
         <v>361</v>
       </c>
       <c r="K65">
-        <v>69.78188899999986</v>
+        <v>69.781888999999865</v>
       </c>
       <c r="L65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -6384,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>4.426435874329639</v>
+        <v>4.4264358743296386</v>
       </c>
       <c r="F66">
-        <v>3.724844804828556</v>
+        <v>3.7248448048285558</v>
       </c>
       <c r="G66">
-        <v>0.01895595320523438</v>
+        <v>1.8955953205234379E-2</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -6399,13 +6428,13 @@
         <v>361</v>
       </c>
       <c r="K66">
-        <v>63.73164399999951</v>
+        <v>63.731643999999513</v>
       </c>
       <c r="L66" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -6419,13 +6448,13 @@
         <v>0.9695339894033812</v>
       </c>
       <c r="E67">
-        <v>54.87918548958701</v>
+        <v>54.879185489587009</v>
       </c>
       <c r="F67">
-        <v>28.16436188193505</v>
+        <v>28.164361881935051</v>
       </c>
       <c r="G67">
-        <v>0.1297970819951036</v>
+        <v>0.12979708199510359</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -6437,13 +6466,13 @@
         <v>368</v>
       </c>
       <c r="K67">
-        <v>69.04879879999953</v>
+        <v>69.048798799999531</v>
       </c>
       <c r="L67" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -6457,13 +6486,13 @@
         <v>0.8187572604821356</v>
       </c>
       <c r="E68">
-        <v>252.2124325070259</v>
+        <v>252.21243250702591</v>
       </c>
       <c r="F68">
-        <v>32.77777777777778</v>
+        <v>32.777777777777779</v>
       </c>
       <c r="G68">
-        <v>0.1360635387699509</v>
+        <v>0.13606353876995089</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -6475,13 +6504,13 @@
         <v>361</v>
       </c>
       <c r="K68">
-        <v>45.05617999999959</v>
+        <v>45.056179999999593</v>
       </c>
       <c r="L68" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -6492,16 +6521,16 @@
         <v>2009</v>
       </c>
       <c r="D69">
-        <v>0.9863368385409149</v>
+        <v>0.98633683854091492</v>
       </c>
       <c r="E69">
-        <v>64.50746324219105</v>
+        <v>64.507463242191051</v>
       </c>
       <c r="F69">
-        <v>26.49908027627943</v>
+        <v>26.499080276279429</v>
       </c>
       <c r="G69">
-        <v>0.1252762963054075</v>
+        <v>0.12527629630540749</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -6513,13 +6542,13 @@
         <v>361</v>
       </c>
       <c r="K69">
-        <v>65.78360900000007</v>
+        <v>65.783609000000069</v>
       </c>
       <c r="L69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -6530,16 +6559,16 @@
         <v>2009</v>
       </c>
       <c r="D70">
-        <v>0.9735616369980294</v>
+        <v>0.97356163699802944</v>
       </c>
       <c r="E70">
-        <v>98.33715690144649</v>
+        <v>98.337156901446491</v>
       </c>
       <c r="F70">
-        <v>29.23376885599408</v>
+        <v>29.233768855994079</v>
       </c>
       <c r="G70">
-        <v>0.1495369489503889</v>
+        <v>0.14953694895038891</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -6551,13 +6580,13 @@
         <v>361</v>
       </c>
       <c r="K70">
-        <v>65.53898049999952</v>
+        <v>65.538980499999525</v>
       </c>
       <c r="L70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -6568,16 +6597,16 @@
         <v>2009</v>
       </c>
       <c r="D71">
-        <v>0.9836549279330914</v>
+        <v>0.98365492793309139</v>
       </c>
       <c r="E71">
-        <v>46.24812308503869</v>
+        <v>46.248123085038692</v>
       </c>
       <c r="F71">
         <v>12.22222222222222</v>
       </c>
       <c r="G71">
-        <v>0.06291458043585994</v>
+        <v>6.2914580435859943E-2</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -6595,7 +6624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -6606,16 +6635,16 @@
         <v>2009</v>
       </c>
       <c r="D72">
-        <v>0.9243892264718954</v>
+        <v>0.92438922647189536</v>
       </c>
       <c r="E72">
-        <v>52.99211538214045</v>
+        <v>52.992115382140447</v>
       </c>
       <c r="F72">
-        <v>32.19785271935169</v>
+        <v>32.197852719351687</v>
       </c>
       <c r="G72">
-        <v>0.16147971503873</v>
+        <v>0.16147971503872999</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -6627,13 +6656,13 @@
         <v>369</v>
       </c>
       <c r="K72">
-        <v>71.89848809999967</v>
+        <v>71.898488099999668</v>
       </c>
       <c r="L72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -6644,13 +6673,13 @@
         <v>2009</v>
       </c>
       <c r="D73">
-        <v>0.8482958088990833</v>
+        <v>0.84829580889908329</v>
       </c>
       <c r="E73">
-        <v>99.13365613969634</v>
+        <v>99.133656139696342</v>
       </c>
       <c r="F73">
-        <v>25.1234938038834</v>
+        <v>25.123493803883399</v>
       </c>
       <c r="G73">
         <v>0.122165555982908</v>
@@ -6665,13 +6694,13 @@
         <v>361</v>
       </c>
       <c r="K73">
-        <v>345.9182000999999</v>
+        <v>345.91820009999992</v>
       </c>
       <c r="L73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -6703,13 +6732,13 @@
         <v>362</v>
       </c>
       <c r="K74">
-        <v>32.53963310000017</v>
+        <v>32.539633100000167</v>
       </c>
       <c r="L74" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -6720,7 +6749,7 @@
         <v>2009</v>
       </c>
       <c r="D75">
-        <v>0.9775300109052059</v>
+        <v>0.97753001090520586</v>
       </c>
       <c r="E75">
         <v>15.92326120229666</v>
@@ -6729,7 +6758,7 @@
         <v>7.699358991968297</v>
       </c>
       <c r="G75">
-        <v>0.0383424752753423</v>
+        <v>3.8342475275342298E-2</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -6741,13 +6770,13 @@
         <v>361</v>
       </c>
       <c r="K75">
-        <v>73.94767130000037</v>
+        <v>73.947671300000366</v>
       </c>
       <c r="L75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -6758,13 +6787,13 @@
         <v>2009</v>
       </c>
       <c r="D76">
-        <v>0.9762861312414207</v>
+        <v>0.97628613124142072</v>
       </c>
       <c r="E76">
-        <v>39.03174355480542</v>
+        <v>39.031743554805423</v>
       </c>
       <c r="F76">
-        <v>20.50583788004177</v>
+        <v>20.505837880041771</v>
       </c>
       <c r="G76">
         <v>0.1021539142980066</v>
@@ -6779,13 +6808,13 @@
         <v>360</v>
       </c>
       <c r="K76">
-        <v>72.94765740000003</v>
+        <v>72.947657400000026</v>
       </c>
       <c r="L76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -6796,16 +6825,16 @@
         <v>2009</v>
       </c>
       <c r="D77">
-        <v>0.8290655105135549</v>
+        <v>0.82906551051355493</v>
       </c>
       <c r="E77">
-        <v>99.78338029126641</v>
+        <v>99.783380291266411</v>
       </c>
       <c r="F77">
-        <v>26.60056356371529</v>
+        <v>26.600563563715291</v>
       </c>
       <c r="G77">
-        <v>0.1228879763555824</v>
+        <v>0.12288797635558241</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -6817,13 +6846,13 @@
         <v>361</v>
       </c>
       <c r="K77">
-        <v>67.43102350000026</v>
+        <v>67.431023500000265</v>
       </c>
       <c r="L77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -6834,16 +6863,16 @@
         <v>2009</v>
       </c>
       <c r="D78">
-        <v>0.5245496937002834</v>
+        <v>0.52454969370028337</v>
       </c>
       <c r="E78">
-        <v>104.0832999733066</v>
+        <v>104.08329997330659</v>
       </c>
       <c r="F78">
-        <v>17.77777777777778</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="G78">
-        <v>0.08685580213830615</v>
+        <v>8.6855802138306154E-2</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -6852,13 +6881,13 @@
         <v>360</v>
       </c>
       <c r="K78">
-        <v>393.1175936999998</v>
+        <v>393.11759369999982</v>
       </c>
       <c r="L78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -6869,13 +6898,13 @@
         <v>2009</v>
       </c>
       <c r="D79">
-        <v>0.8647987063591487</v>
+        <v>0.86479870635914868</v>
       </c>
       <c r="E79">
-        <v>88.73041407039638</v>
+        <v>88.730414070396378</v>
       </c>
       <c r="F79">
-        <v>50.10382898283739</v>
+        <v>50.103828982837392</v>
       </c>
       <c r="G79">
         <v>0.2462880544720952</v>
@@ -6890,13 +6919,13 @@
         <v>361</v>
       </c>
       <c r="K79">
-        <v>72.75145539999994</v>
+        <v>72.751455399999941</v>
       </c>
       <c r="L79" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -6907,16 +6936,16 @@
         <v>2009</v>
       </c>
       <c r="D80">
-        <v>0.9510767138027624</v>
+        <v>0.95107671380276237</v>
       </c>
       <c r="E80">
-        <v>65.51937188471304</v>
+        <v>65.519371884713038</v>
       </c>
       <c r="F80">
         <v>12.8615805559467</v>
       </c>
       <c r="G80">
-        <v>0.06677471585204711</v>
+        <v>6.6774715852047112E-2</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -6928,13 +6957,13 @@
         <v>360</v>
       </c>
       <c r="K80">
-        <v>75.61937820000003</v>
+        <v>75.619378200000028</v>
       </c>
       <c r="L80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -6945,10 +6974,10 @@
         <v>2009</v>
       </c>
       <c r="D81">
-        <v>0.9458195476229501</v>
+        <v>0.94581954762295006</v>
       </c>
       <c r="E81">
-        <v>54.70191430382373</v>
+        <v>54.701914303823727</v>
       </c>
       <c r="F81">
         <v>28.15952823886926</v>
@@ -6966,13 +6995,13 @@
         <v>361</v>
       </c>
       <c r="K81">
-        <v>75.5861716999998</v>
+        <v>75.586171699999795</v>
       </c>
       <c r="L81" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -6983,16 +7012,16 @@
         <v>2009</v>
       </c>
       <c r="D82">
-        <v>0.9289020106929582</v>
+        <v>0.92890201069295819</v>
       </c>
       <c r="E82">
-        <v>32.29501516103306</v>
+        <v>32.295015161033056</v>
       </c>
       <c r="F82">
         <v>13.48456934242167</v>
       </c>
       <c r="G82">
-        <v>0.07002982812657821</v>
+        <v>7.0029828126578209E-2</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -7004,13 +7033,13 @@
         <v>361</v>
       </c>
       <c r="K82">
-        <v>76.84281999999985</v>
+        <v>76.842819999999847</v>
       </c>
       <c r="L82" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -7021,16 +7050,16 @@
         <v>2009</v>
       </c>
       <c r="D83">
-        <v>0.8993608338359624</v>
+        <v>0.89936083383596244</v>
       </c>
       <c r="E83">
-        <v>264.7973355444594</v>
+        <v>264.79733554445937</v>
       </c>
       <c r="F83">
-        <v>76.34478858255137</v>
+        <v>76.344788582551374</v>
       </c>
       <c r="G83">
-        <v>0.3405444868741742</v>
+        <v>0.34054448687417421</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -7042,13 +7071,13 @@
         <v>370</v>
       </c>
       <c r="K83">
-        <v>73.70178039999973</v>
+        <v>73.701780399999734</v>
       </c>
       <c r="L83" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -7059,16 +7088,16 @@
         <v>2009</v>
       </c>
       <c r="D84">
-        <v>0.8937281693932417</v>
+        <v>0.89372816939324173</v>
       </c>
       <c r="E84">
-        <v>68.60630654320437</v>
+        <v>68.606306543204369</v>
       </c>
       <c r="F84">
-        <v>31.04365935085245</v>
+        <v>31.043659350852451</v>
       </c>
       <c r="G84">
-        <v>0.1591094894519675</v>
+        <v>0.15910948945196751</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -7080,13 +7109,13 @@
         <v>361</v>
       </c>
       <c r="K84">
-        <v>73.61591679999947</v>
+        <v>73.615916799999468</v>
       </c>
       <c r="L84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -7097,16 +7126,16 @@
         <v>2009</v>
       </c>
       <c r="D85">
-        <v>0.9642928372082343</v>
+        <v>0.96429283720823433</v>
       </c>
       <c r="E85">
-        <v>36.4333498342255</v>
+        <v>36.433349834225503</v>
       </c>
       <c r="F85">
-        <v>27.18583345881865</v>
+        <v>27.185833458818649</v>
       </c>
       <c r="G85">
-        <v>0.1313004871811689</v>
+        <v>0.13130048718116891</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -7118,13 +7147,13 @@
         <v>361</v>
       </c>
       <c r="K85">
-        <v>74.00880420000067</v>
+        <v>74.008804200000668</v>
       </c>
       <c r="L85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -7135,13 +7164,13 @@
         <v>2009</v>
       </c>
       <c r="D86">
-        <v>0.9679059517834374</v>
+        <v>0.96790595178343741</v>
       </c>
       <c r="E86">
-        <v>66.30161351125464</v>
+        <v>66.301613511254644</v>
       </c>
       <c r="F86">
-        <v>22.07944540291331</v>
+        <v>22.079445402913311</v>
       </c>
       <c r="G86">
         <v>0.1091260011482983</v>
@@ -7156,13 +7185,13 @@
         <v>361</v>
       </c>
       <c r="K86">
-        <v>73.38830540000072</v>
+        <v>73.388305400000718</v>
       </c>
       <c r="L86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -7173,7 +7202,7 @@
         <v>2009</v>
       </c>
       <c r="D87">
-        <v>0.9614810771918466</v>
+        <v>0.96148107719184661</v>
       </c>
       <c r="E87">
         <v>115.5857365483993</v>
@@ -7182,7 +7211,7 @@
         <v>22.33588454661011</v>
       </c>
       <c r="G87">
-        <v>0.09225435268722543</v>
+        <v>9.2254352687225427E-2</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -7194,13 +7223,13 @@
         <v>361</v>
       </c>
       <c r="K87">
-        <v>55.42757439999968</v>
+        <v>55.427574399999678</v>
       </c>
       <c r="L87" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -7211,10 +7240,10 @@
         <v>2009</v>
       </c>
       <c r="D88">
-        <v>0.7018631283478323</v>
+        <v>0.70186312834783227</v>
       </c>
       <c r="E88">
-        <v>87.16204576661922</v>
+        <v>87.162045766619215</v>
       </c>
       <c r="F88">
         <v>22.5</v>
@@ -7232,13 +7261,13 @@
         <v>361</v>
       </c>
       <c r="K88">
-        <v>70.47139880000032</v>
+        <v>70.471398800000316</v>
       </c>
       <c r="L88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -7252,13 +7281,13 @@
         <v>0.4432012330365479</v>
       </c>
       <c r="E89">
-        <v>135.5791501676838</v>
+        <v>135.57915016768379</v>
       </c>
       <c r="F89">
-        <v>83.36749246215848</v>
+        <v>83.367492462158481</v>
       </c>
       <c r="G89">
-        <v>0.4223203636334124</v>
+        <v>0.42232036363341241</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -7267,13 +7296,13 @@
         <v>371</v>
       </c>
       <c r="K89">
-        <v>77.34523960000024</v>
+        <v>77.345239600000241</v>
       </c>
       <c r="L89" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -7284,16 +7313,16 @@
         <v>2009</v>
       </c>
       <c r="D90">
-        <v>0.9147525793060335</v>
+        <v>0.91475257930603349</v>
       </c>
       <c r="E90">
-        <v>59.92447207113376</v>
+        <v>59.924472071133764</v>
       </c>
       <c r="F90">
         <v>19.7931501201227</v>
       </c>
       <c r="G90">
-        <v>0.09670429594799358</v>
+        <v>9.6704295947993582E-2</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -7305,13 +7334,13 @@
         <v>361</v>
       </c>
       <c r="K90">
-        <v>74.76075270000001</v>
+        <v>74.760752700000012</v>
       </c>
       <c r="L90" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -7322,16 +7351,16 @@
         <v>2009</v>
       </c>
       <c r="D91">
-        <v>0.9847912216779861</v>
+        <v>0.98479122167798605</v>
       </c>
       <c r="E91">
-        <v>53.08450648150851</v>
+        <v>53.084506481508512</v>
       </c>
       <c r="F91">
         <v>34.71915578235425</v>
       </c>
       <c r="G91">
-        <v>0.1705319589786052</v>
+        <v>0.17053195897860521</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -7343,13 +7372,13 @@
         <v>360</v>
       </c>
       <c r="K91">
-        <v>75.17220779999934</v>
+        <v>75.172207799999342</v>
       </c>
       <c r="L91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -7360,16 +7389,16 @@
         <v>2009</v>
       </c>
       <c r="D92">
-        <v>0.9791562238218017</v>
+        <v>0.97915622382180167</v>
       </c>
       <c r="E92">
-        <v>39.43320769624074</v>
+        <v>39.433207696240743</v>
       </c>
       <c r="F92">
         <v>13.02536793561764</v>
       </c>
       <c r="G92">
-        <v>0.06991199261098144</v>
+        <v>6.9911992610981438E-2</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -7381,13 +7410,13 @@
         <v>361</v>
       </c>
       <c r="K92">
-        <v>79.75658629999998</v>
+        <v>79.756586299999981</v>
       </c>
       <c r="L92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -7398,16 +7427,16 @@
         <v>2009</v>
       </c>
       <c r="D93">
-        <v>0.9763655462184874</v>
+        <v>0.97636554621848737</v>
       </c>
       <c r="E93">
-        <v>63.35525936249404</v>
+        <v>63.355259362494039</v>
       </c>
       <c r="F93">
-        <v>4.722222222222222</v>
+        <v>4.7222222222222223</v>
       </c>
       <c r="G93">
-        <v>0.02361111111111111</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -7419,13 +7448,13 @@
         <v>362</v>
       </c>
       <c r="K93">
-        <v>35.23162830000001</v>
+        <v>35.231628300000011</v>
       </c>
       <c r="L93" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -7436,13 +7465,13 @@
         <v>2009</v>
       </c>
       <c r="D94">
-        <v>0.9423515417136799</v>
+        <v>0.94235154171367985</v>
       </c>
       <c r="E94">
         <v>74.77719648782616</v>
       </c>
       <c r="F94">
-        <v>18.4214300350514</v>
+        <v>18.421430035051401</v>
       </c>
       <c r="G94">
         <v>0.1007937143368421</v>
@@ -7457,13 +7486,13 @@
         <v>361</v>
       </c>
       <c r="K94">
-        <v>62.22705320000023</v>
+        <v>62.227053200000228</v>
       </c>
       <c r="L94" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -7474,13 +7503,13 @@
         <v>2009</v>
       </c>
       <c r="D95">
-        <v>0.9423515417136799</v>
+        <v>0.94235154171367985</v>
       </c>
       <c r="E95">
         <v>74.77719648782616</v>
       </c>
       <c r="F95">
-        <v>18.4214300350514</v>
+        <v>18.421430035051401</v>
       </c>
       <c r="G95">
         <v>0.1007937143368421</v>
@@ -7495,13 +7524,13 @@
         <v>361</v>
       </c>
       <c r="K95">
-        <v>63.18254640000032</v>
+        <v>63.182546400000319</v>
       </c>
       <c r="L95" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -7512,7 +7541,7 @@
         <v>2009</v>
       </c>
       <c r="D96">
-        <v>0.958691757599088</v>
+        <v>0.95869175759908798</v>
       </c>
       <c r="E96">
         <v>29.34469476943168</v>
@@ -7521,7 +7550,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="G96">
-        <v>0.0311933315085578</v>
+        <v>3.1193331508557801E-2</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -7533,13 +7562,13 @@
         <v>360</v>
       </c>
       <c r="K96">
-        <v>71.95417780000025</v>
+        <v>71.954177800000252</v>
       </c>
       <c r="L96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -7553,13 +7582,13 @@
         <v>0.8746989423609679</v>
       </c>
       <c r="E97">
-        <v>88.47155897151401</v>
+        <v>88.471558971514014</v>
       </c>
       <c r="F97">
-        <v>39.68037794299126</v>
+        <v>39.680377942991257</v>
       </c>
       <c r="G97">
-        <v>0.1902858770658042</v>
+        <v>0.19028587706580419</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -7577,7 +7606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -7588,16 +7617,16 @@
         <v>2009</v>
       </c>
       <c r="D98">
-        <v>0.8490973546398233</v>
+        <v>0.84909735463982328</v>
       </c>
       <c r="E98">
-        <v>55.44430409703457</v>
+        <v>55.444304097034568</v>
       </c>
       <c r="F98">
-        <v>37.02953208665363</v>
+        <v>37.029532086653631</v>
       </c>
       <c r="G98">
-        <v>0.1825873759028762</v>
+        <v>0.18258737590287619</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -7609,13 +7638,13 @@
         <v>365</v>
       </c>
       <c r="K98">
-        <v>80.25416990000031</v>
+        <v>80.254169900000306</v>
       </c>
       <c r="L98" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -7626,16 +7655,16 @@
         <v>2009</v>
       </c>
       <c r="D99">
-        <v>0.9860003198969189</v>
+        <v>0.98600031989691894</v>
       </c>
       <c r="E99">
         <v>66.03556761403847</v>
       </c>
       <c r="F99">
-        <v>11.5246956552704</v>
+        <v>11.524695655270399</v>
       </c>
       <c r="G99">
-        <v>0.06007964703250285</v>
+        <v>6.0079647032502848E-2</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
@@ -7647,13 +7676,13 @@
         <v>361</v>
       </c>
       <c r="K99">
-        <v>59.57670860000053</v>
+        <v>59.576708600000529</v>
       </c>
       <c r="L99" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -7667,13 +7696,13 @@
         <v>0.9336475614255022</v>
       </c>
       <c r="E100">
-        <v>7.533108143347089</v>
+        <v>7.5331081433470892</v>
       </c>
       <c r="F100">
-        <v>2.545026122675417</v>
+        <v>2.5450261226754169</v>
       </c>
       <c r="G100">
-        <v>0.01165327228055979</v>
+        <v>1.165327228055979E-2</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -7685,13 +7714,13 @@
         <v>361</v>
       </c>
       <c r="K100">
-        <v>60.53849040000023</v>
+        <v>60.538490400000228</v>
       </c>
       <c r="L100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -7702,16 +7731,16 @@
         <v>2009</v>
       </c>
       <c r="D101">
-        <v>0.9818689379949788</v>
+        <v>0.98186893799497876</v>
       </c>
       <c r="E101">
-        <v>80.62422420798659</v>
+        <v>80.624224207986586</v>
       </c>
       <c r="F101">
-        <v>16.79090369599326</v>
+        <v>16.790903695993261</v>
       </c>
       <c r="G101">
-        <v>0.07084973767482899</v>
+        <v>7.0849737674828994E-2</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -7729,7 +7758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -7740,16 +7769,16 @@
         <v>2009</v>
       </c>
       <c r="D102">
-        <v>0.9583344265291021</v>
+        <v>0.95833442652910206</v>
       </c>
       <c r="E102">
         <v>28.42466705674736</v>
       </c>
       <c r="F102">
-        <v>9.057693643625276</v>
+        <v>9.0576936436252762</v>
       </c>
       <c r="G102">
-        <v>0.04808935371491324</v>
+        <v>4.8089353714913241E-2</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -7761,13 +7790,13 @@
         <v>361</v>
       </c>
       <c r="K102">
-        <v>64.20665590000044</v>
+        <v>64.206655900000442</v>
       </c>
       <c r="L102" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -7778,16 +7807,16 @@
         <v>2009</v>
       </c>
       <c r="D103">
-        <v>0.9735616369980294</v>
+        <v>0.97356163699802944</v>
       </c>
       <c r="E103">
-        <v>98.33715690144649</v>
+        <v>98.337156901446491</v>
       </c>
       <c r="F103">
-        <v>29.23376885599408</v>
+        <v>29.233768855994079</v>
       </c>
       <c r="G103">
-        <v>0.1495369489503889</v>
+        <v>0.14953694895038891</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -7799,13 +7828,13 @@
         <v>361</v>
       </c>
       <c r="K103">
-        <v>75.81526960000065</v>
+        <v>75.815269600000647</v>
       </c>
       <c r="L103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -7816,16 +7845,16 @@
         <v>2009</v>
       </c>
       <c r="D104">
-        <v>0.899736798871324</v>
+        <v>0.89973679887132396</v>
       </c>
       <c r="E104">
-        <v>39.03716286438375</v>
+        <v>39.037162864383752</v>
       </c>
       <c r="F104">
         <v>16.48451419924675</v>
       </c>
       <c r="G104">
-        <v>0.08413889026662948</v>
+        <v>8.4138890266629476E-2</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -7837,7 +7866,7 @@
         <v>361</v>
       </c>
       <c r="K104">
-        <v>61.94335589999991</v>
+        <v>61.943355899999908</v>
       </c>
       <c r="L104" t="s">
         <v>120</v>
@@ -7849,14 +7878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>372</v>
       </c>
@@ -7867,7 +7896,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>103</v>
       </c>
